--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1413018.661764801</v>
+        <v>-1413683.44284622</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058549</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1373,20 +1373,20 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38.19558671312488</v>
+      </c>
+      <c r="H11" t="n">
         <v>98.93990648501767</v>
       </c>
-      <c r="G11" t="n">
-        <v>98.93990648501767</v>
-      </c>
-      <c r="H11" t="n">
-        <v>65.08788890624878</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26.89230219312406</v>
       </c>
       <c r="T11" t="n">
-        <v>22.05838072575474</v>
+        <v>22.0583807257546</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,61 +1461,61 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.063707710285861</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>98.93990648501767</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
-        <v>42.88016648777464</v>
+        <v>95.46330153238674</v>
       </c>
       <c r="U12" t="n">
-        <v>36.8717970345844</v>
+        <v>36.87179703458425</v>
       </c>
       <c r="V12" t="n">
-        <v>98.93990648501767</v>
+        <v>40.29306373012022</v>
       </c>
       <c r="W12" t="n">
-        <v>66.34872639172971</v>
+        <v>66.34872639172957</v>
       </c>
       <c r="X12" t="n">
-        <v>16.95705725418873</v>
+        <v>16.95705725418858</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.02842894874374</v>
+        <v>23.0284289487436</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.836158859791231</v>
+        <v>2.836158859791089</v>
       </c>
       <c r="S13" t="n">
-        <v>34.98996300440345</v>
+        <v>34.98996300440331</v>
       </c>
       <c r="T13" t="n">
-        <v>23.38309022542049</v>
+        <v>23.38309022542035</v>
       </c>
       <c r="U13" t="n">
-        <v>88.3004111317141</v>
+        <v>88.30041113171396</v>
       </c>
       <c r="V13" t="n">
-        <v>44.75315799916802</v>
+        <v>44.75315799916788</v>
       </c>
       <c r="W13" t="n">
-        <v>89.95484990405345</v>
+        <v>89.9548499040533</v>
       </c>
       <c r="X13" t="n">
-        <v>21.56359822296065</v>
+        <v>21.56359822296051</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.78541562888654</v>
+        <v>16.7854156288864</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>60.2539674388793</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>98.93990648501767</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89230219312421</v>
+        <v>26.89230219312409</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>22.05838072575463</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>49.79374050860073</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>87.34175268954165</v>
       </c>
     </row>
     <row r="15">
@@ -1689,70 +1689,70 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>98.93990648501767</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6.063707710285861</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>86.93738546136612</v>
       </c>
       <c r="T15" t="n">
-        <v>14.58962378130649</v>
+        <v>14.58962378130637</v>
       </c>
       <c r="U15" t="n">
-        <v>98.93990648501767</v>
+        <v>36.87179703458428</v>
       </c>
       <c r="V15" t="n">
-        <v>40.29306373012037</v>
+        <v>40.29306373012025</v>
       </c>
       <c r="W15" t="n">
-        <v>85.154294692376</v>
+        <v>66.3487263917296</v>
       </c>
       <c r="X15" t="n">
-        <v>16.95705725418873</v>
+        <v>16.95705725418861</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.02842894874374</v>
+        <v>23.02842894874362</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.836158859791231</v>
+        <v>2.836158859791118</v>
       </c>
       <c r="S16" t="n">
-        <v>34.98996300440345</v>
+        <v>34.98996300440334</v>
       </c>
       <c r="T16" t="n">
-        <v>23.38309022542049</v>
+        <v>23.38309022542038</v>
       </c>
       <c r="U16" t="n">
-        <v>88.3004111317141</v>
+        <v>88.30041113171399</v>
       </c>
       <c r="V16" t="n">
-        <v>44.75315799916802</v>
+        <v>44.75315799916791</v>
       </c>
       <c r="W16" t="n">
-        <v>89.95484990405345</v>
+        <v>89.95484990405333</v>
       </c>
       <c r="X16" t="n">
-        <v>21.56359822296065</v>
+        <v>21.56359822296054</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.78541562888654</v>
+        <v>16.78541562888643</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>73.35237277478018</v>
       </c>
       <c r="G17" t="n">
-        <v>88.97949861282754</v>
+        <v>88.97949861282757</v>
       </c>
       <c r="H17" t="n">
-        <v>17.05370075428355</v>
+        <v>17.05370075428357</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.049586960533539</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X17" t="n">
         <v>29.93583742947283</v>
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>81.0825619217176</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>81.08256192171767</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>98.93990648501767</v>
       </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="Y18" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2093,7 @@
         <v>73.35237277478018</v>
       </c>
       <c r="G20" t="n">
-        <v>88.97949861282754</v>
+        <v>88.97949861282711</v>
       </c>
       <c r="H20" t="n">
         <v>17.05370075428357</v>
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>98.93990648501767</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>81.0825619217176</v>
-      </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>98.93990648501767</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>29.20375702702735</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>73.35237277478018</v>
       </c>
       <c r="G23" t="n">
-        <v>88.97949861282757</v>
+        <v>88.97949861282754</v>
       </c>
       <c r="H23" t="n">
         <v>17.05370075428357</v>
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>98.93990648501774</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="E24" t="n">
-        <v>81.08256192171767</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>81.0825619217176</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>98.93990648501774</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>98.93990648501774</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2265260322199</v>
+        <v>161.2265260322198</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3447830355654</v>
+        <v>137.3447830355653</v>
       </c>
       <c r="D26" t="n">
         <v>124.9114452966138</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6181977160227</v>
+        <v>158.6181977160226</v>
       </c>
       <c r="F26" t="n">
         <v>190.3385352944</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324473</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739033</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69423234529549</v>
+        <v>27.69423234529543</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.38744503279264</v>
+        <v>14.38744503279258</v>
       </c>
       <c r="T26" t="n">
-        <v>9.553523565423177</v>
+        <v>9.553523565423115</v>
       </c>
       <c r="U26" t="n">
-        <v>37.28888334826928</v>
+        <v>37.28888334826923</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0190692635386</v>
+        <v>108.0190692635385</v>
       </c>
       <c r="W26" t="n">
         <v>125.0357494801534</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9219999490927</v>
+        <v>146.9219999490926</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4248530728364</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9454809665884</v>
+        <v>2.084766620974862</v>
       </c>
       <c r="U27" t="n">
-        <v>24.36693987425283</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V27" t="n">
-        <v>27.7882065697888</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>87.92603817578123</v>
+        <v>262.8669381991025</v>
       </c>
       <c r="X27" t="n">
-        <v>4.452200093857158</v>
+        <v>4.452200093857101</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.52357178841217</v>
+        <v>10.52357178841211</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.48510584407188</v>
+        <v>22.48510584407182</v>
       </c>
       <c r="T28" t="n">
-        <v>10.87823306508892</v>
+        <v>10.87823306508887</v>
       </c>
       <c r="U28" t="n">
-        <v>75.79555397138253</v>
+        <v>75.79555397138247</v>
       </c>
       <c r="V28" t="n">
-        <v>32.24830083883646</v>
+        <v>32.2483008388364</v>
       </c>
       <c r="W28" t="n">
-        <v>77.44999274372188</v>
+        <v>77.44999274372182</v>
       </c>
       <c r="X28" t="n">
-        <v>9.058741062629082</v>
+        <v>9.058741062629025</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.280558468554972</v>
+        <v>4.280558468554915</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2265260322199</v>
+        <v>161.2265260322198</v>
       </c>
       <c r="C29" t="n">
         <v>137.3447830355653</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9114452966138</v>
+        <v>124.9114452966137</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6181977160227</v>
+        <v>158.6181977160226</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3385352944</v>
+        <v>190.3385352943999</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324473</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739033</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69423234529546</v>
+        <v>27.6942323452954</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.38744503279261</v>
+        <v>14.38744503279255</v>
       </c>
       <c r="T29" t="n">
-        <v>9.553523565423143</v>
+        <v>9.553523565423086</v>
       </c>
       <c r="U29" t="n">
-        <v>37.28888334826925</v>
+        <v>37.2888833482692</v>
       </c>
       <c r="V29" t="n">
         <v>108.0190692635385</v>
@@ -2855,7 +2855,7 @@
         <v>125.0357494801534</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9219999490927</v>
+        <v>146.9219999490926</v>
       </c>
       <c r="Y29" t="n">
         <v>169.4248530728364</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7382922638873</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9454809665884</v>
+        <v>2.084766620974833</v>
       </c>
       <c r="U30" t="n">
-        <v>24.3669398742528</v>
+        <v>107.7154469230624</v>
       </c>
       <c r="V30" t="n">
-        <v>88.07298327360589</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.84386923139812</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>4.45220009385713</v>
+        <v>4.452200093857073</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>10.52357178841208</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.48510584407185</v>
+        <v>22.48510584407179</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8782330650889</v>
+        <v>10.87823306508884</v>
       </c>
       <c r="U31" t="n">
-        <v>75.7955539713825</v>
+        <v>75.79555397138245</v>
       </c>
       <c r="V31" t="n">
-        <v>32.24830083883643</v>
+        <v>32.24830083883637</v>
       </c>
       <c r="W31" t="n">
-        <v>77.44999274372185</v>
+        <v>77.44999274372179</v>
       </c>
       <c r="X31" t="n">
-        <v>9.058741062629053</v>
+        <v>9.058741062628997</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.280558468554943</v>
+        <v>4.280558468554887</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.38744503279255</v>
+        <v>14.38744503279256</v>
       </c>
       <c r="T32" t="n">
-        <v>9.553523565423086</v>
+        <v>9.553523565423092</v>
       </c>
       <c r="U32" t="n">
         <v>37.2888833482692</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H33" t="n">
         <v>125.6745619188949</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>2.084766620974833</v>
       </c>
       <c r="U33" t="n">
-        <v>24.36693987425274</v>
+        <v>212.8710115106024</v>
       </c>
       <c r="V33" t="n">
         <v>27.78820656978871</v>
@@ -3171,7 +3171,7 @@
         <v>53.84386923139806</v>
       </c>
       <c r="X33" t="n">
-        <v>202.4437514156981</v>
+        <v>4.452200093857073</v>
       </c>
       <c r="Y33" t="n">
         <v>10.52357178841208</v>
@@ -3269,7 +3269,7 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D35" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131832</v>
       </c>
       <c r="E35" t="n">
         <v>130.9239653707272</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973762</v>
       </c>
       <c r="V35" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824305</v>
       </c>
       <c r="W35" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485792</v>
       </c>
       <c r="X35" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.730620727541</v>
+        <v>141.7306207275409</v>
       </c>
     </row>
     <row r="36">
@@ -3351,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>62.99033558202102</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>50.30829346261402</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0.09397422449328019</v>
       </c>
       <c r="W36" t="n">
-        <v>26.14963688610266</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608701</v>
       </c>
       <c r="V37" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540939</v>
       </c>
       <c r="W37" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842636</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>133.5322936869244</v>
+        <v>133.5322936869243</v>
       </c>
       <c r="C38" t="n">
-        <v>109.6505506902699</v>
+        <v>109.6505506902698</v>
       </c>
       <c r="D38" t="n">
-        <v>97.21721295131832</v>
+        <v>97.21721295131829</v>
       </c>
       <c r="E38" t="n">
         <v>130.9239653707272</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.594651002973768</v>
+        <v>9.594651002973734</v>
       </c>
       <c r="V38" t="n">
-        <v>80.32483691824305</v>
+        <v>80.32483691824302</v>
       </c>
       <c r="W38" t="n">
-        <v>97.34151713485792</v>
+        <v>97.3415171348579</v>
       </c>
       <c r="X38" t="n">
-        <v>119.2277676037972</v>
+        <v>119.2277676037971</v>
       </c>
       <c r="Y38" t="n">
         <v>141.7306207275409</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>51.85058171437056</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6745619188949</v>
+        <v>84.22561252057054</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.09397422449328019</v>
+        <v>0.09397422449325177</v>
       </c>
       <c r="W39" t="n">
-        <v>26.14963688610263</v>
+        <v>26.1496368861026</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.10132162608701</v>
+        <v>48.10132162608699</v>
       </c>
       <c r="V40" t="n">
-        <v>4.554068493540939</v>
+        <v>4.55406849354091</v>
       </c>
       <c r="W40" t="n">
-        <v>49.75576039842636</v>
+        <v>49.75576039842633</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D41" t="n">
-        <v>97.21721295131832</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E41" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F41" t="n">
-        <v>162.6443029491045</v>
+        <v>162.6443029491046</v>
       </c>
       <c r="G41" t="n">
         <v>178.2714287871519</v>
       </c>
       <c r="H41" t="n">
-        <v>106.3456309286079</v>
+        <v>106.345630928608</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.594651002973762</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V41" t="n">
-        <v>80.32483691824305</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W41" t="n">
-        <v>97.34151713485792</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X41" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.7306207275409</v>
+        <v>141.730620727541</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>122.7814548644136</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.09397422449328019</v>
+        <v>0.09397422449333703</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>26.14963688610268</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>49.88091330003658</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.10132162608701</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V43" t="n">
-        <v>4.554068493540939</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W43" t="n">
-        <v>49.75576039842636</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,19 +3980,19 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D44" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E44" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F44" t="n">
-        <v>162.6443029491045</v>
+        <v>162.6443029491046</v>
       </c>
       <c r="G44" t="n">
         <v>178.2714287871519</v>
       </c>
       <c r="H44" t="n">
-        <v>106.3456309286079</v>
+        <v>106.345630928608</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V44" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W44" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X44" t="n">
         <v>119.2277676037972</v>
@@ -4056,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>80.1030563777186</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0.09397422449333703</v>
       </c>
       <c r="W45" t="n">
-        <v>26.14963688610266</v>
+        <v>130.2701590732085</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V46" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W46" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>273.5391338079774</v>
+        <v>346.314491678577</v>
       </c>
       <c r="C11" t="n">
-        <v>273.5391338079774</v>
+        <v>346.314491678577</v>
       </c>
       <c r="D11" t="n">
-        <v>273.5391338079774</v>
+        <v>246.3751921987612</v>
       </c>
       <c r="E11" t="n">
-        <v>273.5391338079774</v>
+        <v>146.4358927189454</v>
       </c>
       <c r="F11" t="n">
-        <v>173.5998343281615</v>
+        <v>146.4358927189454</v>
       </c>
       <c r="G11" t="n">
-        <v>73.66053484834565</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="H11" t="n">
         <v>7.915192518801414</v>
@@ -5039,52 +5039,52 @@
         <v>7.915192518801414</v>
       </c>
       <c r="J11" t="n">
-        <v>46.57881336757659</v>
+        <v>105.8656999389689</v>
       </c>
       <c r="K11" t="n">
-        <v>46.57881336757659</v>
+        <v>105.8656999389689</v>
       </c>
       <c r="L11" t="n">
-        <v>95.14277008191867</v>
+        <v>154.429656653311</v>
       </c>
       <c r="M11" t="n">
-        <v>178.055488883819</v>
+        <v>237.3423754552113</v>
       </c>
       <c r="N11" t="n">
-        <v>255.4673861415183</v>
+        <v>314.7542727129106</v>
       </c>
       <c r="O11" t="n">
-        <v>291.6558868311978</v>
+        <v>350.9427734025901</v>
       </c>
       <c r="P11" t="n">
-        <v>291.6558868311978</v>
+        <v>350.9427734025901</v>
       </c>
       <c r="Q11" t="n">
-        <v>389.6063942513653</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R11" t="n">
         <v>395.7596259400707</v>
       </c>
       <c r="S11" t="n">
-        <v>395.7596259400707</v>
+        <v>368.5956843308545</v>
       </c>
       <c r="T11" t="n">
-        <v>373.4784332877932</v>
+        <v>346.314491678577</v>
       </c>
       <c r="U11" t="n">
-        <v>373.4784332877932</v>
+        <v>346.314491678577</v>
       </c>
       <c r="V11" t="n">
-        <v>373.4784332877932</v>
+        <v>346.314491678577</v>
       </c>
       <c r="W11" t="n">
-        <v>373.4784332877932</v>
+        <v>346.314491678577</v>
       </c>
       <c r="X11" t="n">
-        <v>373.4784332877932</v>
+        <v>346.314491678577</v>
       </c>
       <c r="Y11" t="n">
-        <v>273.5391338079774</v>
+        <v>346.314491678577</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C12" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D12" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E12" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G12" t="n">
         <v>7.915192518801414</v>
@@ -5124,46 +5124,46 @@
         <v>46.8876093073556</v>
       </c>
       <c r="L12" t="n">
-        <v>115.0401959957312</v>
+        <v>144.8381167275231</v>
       </c>
       <c r="M12" t="n">
-        <v>115.0401959957312</v>
+        <v>242.7886241476906</v>
       </c>
       <c r="N12" t="n">
-        <v>212.9907034158987</v>
+        <v>340.7391315678581</v>
       </c>
       <c r="O12" t="n">
-        <v>310.9412108360661</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="P12" t="n">
         <v>395.7596259400707</v>
       </c>
       <c r="Q12" t="n">
-        <v>395.7596259400707</v>
+        <v>389.6346686569536</v>
       </c>
       <c r="R12" t="n">
-        <v>395.7596259400707</v>
+        <v>389.6346686569536</v>
       </c>
       <c r="S12" t="n">
-        <v>395.7596259400707</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="T12" t="n">
-        <v>352.44632645747</v>
+        <v>193.2677918716966</v>
       </c>
       <c r="U12" t="n">
-        <v>315.2020870285969</v>
+        <v>156.0235524428236</v>
       </c>
       <c r="V12" t="n">
-        <v>215.2627875487811</v>
+        <v>115.3234880689648</v>
       </c>
       <c r="W12" t="n">
-        <v>148.2438720015793</v>
+        <v>48.30457252176322</v>
       </c>
       <c r="X12" t="n">
-        <v>131.1155313407827</v>
+        <v>31.17623186096667</v>
       </c>
       <c r="Y12" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.915192518801414</v>
+        <v>30.4267396739122</v>
       </c>
       <c r="C13" t="n">
-        <v>7.915192518801414</v>
+        <v>30.4267396739122</v>
       </c>
       <c r="D13" t="n">
-        <v>7.915192518801414</v>
+        <v>85.0482145391378</v>
       </c>
       <c r="E13" t="n">
-        <v>7.915192518801414</v>
+        <v>143.1411333524643</v>
       </c>
       <c r="F13" t="n">
-        <v>7.915192518801414</v>
+        <v>203.9558185696313</v>
       </c>
       <c r="G13" t="n">
-        <v>7.915192518801414</v>
+        <v>203.9558185696313</v>
       </c>
       <c r="H13" t="n">
-        <v>42.14791715790097</v>
+        <v>203.9558185696313</v>
       </c>
       <c r="I13" t="n">
-        <v>42.14791715790097</v>
+        <v>203.9558185696313</v>
       </c>
       <c r="J13" t="n">
-        <v>42.14791715790097</v>
+        <v>260.893906939687</v>
       </c>
       <c r="K13" t="n">
-        <v>42.14791715790097</v>
+        <v>260.893906939687</v>
       </c>
       <c r="L13" t="n">
-        <v>140.0984245780685</v>
+        <v>260.893906939687</v>
       </c>
       <c r="M13" t="n">
-        <v>140.0984245780685</v>
+        <v>260.893906939687</v>
       </c>
       <c r="N13" t="n">
-        <v>140.0984245780685</v>
+        <v>260.893906939687</v>
       </c>
       <c r="O13" t="n">
-        <v>235.7895790141875</v>
+        <v>260.893906939687</v>
       </c>
       <c r="P13" t="n">
-        <v>333.740086434355</v>
+        <v>260.893906939687</v>
       </c>
       <c r="Q13" t="n">
-        <v>333.740086434355</v>
+        <v>333.7400864343537</v>
       </c>
       <c r="R13" t="n">
-        <v>330.8752795052729</v>
+        <v>330.8752795052718</v>
       </c>
       <c r="S13" t="n">
-        <v>295.531882531128</v>
+        <v>295.5318825311271</v>
       </c>
       <c r="T13" t="n">
-        <v>271.9125994751477</v>
+        <v>271.9125994751469</v>
       </c>
       <c r="U13" t="n">
-        <v>182.7202649986688</v>
+        <v>182.7202649986682</v>
       </c>
       <c r="V13" t="n">
-        <v>137.515054898499</v>
+        <v>137.5150548984986</v>
       </c>
       <c r="W13" t="n">
-        <v>46.65157014692989</v>
+        <v>46.6515701469296</v>
       </c>
       <c r="X13" t="n">
-        <v>24.87015780050499</v>
+        <v>24.87015780050485</v>
       </c>
       <c r="Y13" t="n">
         <v>7.915192518801414</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.5956843308543</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="C14" t="n">
-        <v>268.6563848510385</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="D14" t="n">
-        <v>268.6563848510385</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="E14" t="n">
-        <v>268.6563848510385</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="F14" t="n">
-        <v>168.7170853712226</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="G14" t="n">
         <v>107.8544919986173</v>
@@ -5279,49 +5279,49 @@
         <v>7.915192518801414</v>
       </c>
       <c r="K14" t="n">
-        <v>105.8656999389689</v>
+        <v>46.57881336757648</v>
       </c>
       <c r="L14" t="n">
-        <v>154.429656653311</v>
+        <v>95.14277008191856</v>
       </c>
       <c r="M14" t="n">
-        <v>252.3801640734785</v>
+        <v>178.0554888838188</v>
       </c>
       <c r="N14" t="n">
-        <v>350.330671493646</v>
+        <v>255.4673861415182</v>
       </c>
       <c r="O14" t="n">
-        <v>386.5191721833255</v>
+        <v>291.6558868311977</v>
       </c>
       <c r="P14" t="n">
-        <v>386.5191721833255</v>
+        <v>291.6558868311977</v>
       </c>
       <c r="Q14" t="n">
-        <v>395.7596259400707</v>
+        <v>389.6063942513652</v>
       </c>
       <c r="R14" t="n">
         <v>395.7596259400707</v>
       </c>
       <c r="S14" t="n">
-        <v>368.5956843308543</v>
+        <v>368.5956843308545</v>
       </c>
       <c r="T14" t="n">
-        <v>368.5956843308543</v>
+        <v>346.314491678577</v>
       </c>
       <c r="U14" t="n">
-        <v>368.5956843308543</v>
+        <v>296.0177840941318</v>
       </c>
       <c r="V14" t="n">
-        <v>368.5956843308543</v>
+        <v>196.0784846143159</v>
       </c>
       <c r="W14" t="n">
-        <v>368.5956843308543</v>
+        <v>196.0784846143159</v>
       </c>
       <c r="X14" t="n">
-        <v>368.5956843308543</v>
+        <v>196.0784846143159</v>
       </c>
       <c r="Y14" t="n">
-        <v>368.5956843308543</v>
+        <v>107.8544919986173</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C15" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D15" t="n">
         <v>7.915192518801414</v>
@@ -5361,13 +5361,13 @@
         <v>46.8876093073556</v>
       </c>
       <c r="L15" t="n">
-        <v>144.8381167275231</v>
+        <v>101.9081036795682</v>
       </c>
       <c r="M15" t="n">
-        <v>242.7886241476906</v>
+        <v>199.8586110997357</v>
       </c>
       <c r="N15" t="n">
-        <v>340.7391315678581</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="O15" t="n">
         <v>395.7596259400707</v>
@@ -5376,31 +5376,31 @@
         <v>395.7596259400707</v>
       </c>
       <c r="Q15" t="n">
-        <v>389.6346686569536</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R15" t="n">
-        <v>389.6346686569536</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="S15" t="n">
-        <v>389.6346686569536</v>
+        <v>208.004785590188</v>
       </c>
       <c r="T15" t="n">
-        <v>374.8976749384622</v>
+        <v>193.2677918716967</v>
       </c>
       <c r="U15" t="n">
-        <v>274.9583754586464</v>
+        <v>156.0235524428237</v>
       </c>
       <c r="V15" t="n">
-        <v>234.2583110847874</v>
+        <v>115.3234880689649</v>
       </c>
       <c r="W15" t="n">
-        <v>148.2438720015793</v>
+        <v>48.30457252176328</v>
       </c>
       <c r="X15" t="n">
-        <v>131.1155313407827</v>
+        <v>31.17623186096669</v>
       </c>
       <c r="Y15" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="16">
@@ -5413,70 +5413,70 @@
         <v>7.915192518801414</v>
       </c>
       <c r="C16" t="n">
-        <v>7.915192518801414</v>
+        <v>41.47488196997796</v>
       </c>
       <c r="D16" t="n">
-        <v>62.53666738402687</v>
+        <v>41.47488196997796</v>
       </c>
       <c r="E16" t="n">
-        <v>120.6295861973532</v>
+        <v>99.56780078330439</v>
       </c>
       <c r="F16" t="n">
-        <v>120.6295861973532</v>
+        <v>99.56780078330439</v>
       </c>
       <c r="G16" t="n">
-        <v>120.6295861973532</v>
+        <v>130.9115712448413</v>
       </c>
       <c r="H16" t="n">
-        <v>120.6295861973532</v>
+        <v>130.9115712448413</v>
       </c>
       <c r="I16" t="n">
-        <v>120.6295861973532</v>
+        <v>166.2169832707179</v>
       </c>
       <c r="J16" t="n">
-        <v>120.6295861973532</v>
+        <v>245.9024695144681</v>
       </c>
       <c r="K16" t="n">
-        <v>218.5800936175207</v>
+        <v>245.9024695144681</v>
       </c>
       <c r="L16" t="n">
-        <v>218.5800936175207</v>
+        <v>245.9024695144681</v>
       </c>
       <c r="M16" t="n">
-        <v>235.7895790141875</v>
+        <v>245.9024695144681</v>
       </c>
       <c r="N16" t="n">
-        <v>235.7895790141875</v>
+        <v>245.9024695144681</v>
       </c>
       <c r="O16" t="n">
-        <v>235.7895790141875</v>
+        <v>245.9024695144681</v>
       </c>
       <c r="P16" t="n">
-        <v>333.740086434355</v>
+        <v>260.8939069396873</v>
       </c>
       <c r="Q16" t="n">
-        <v>333.740086434355</v>
+        <v>333.7400864343541</v>
       </c>
       <c r="R16" t="n">
-        <v>330.8752795052729</v>
+        <v>330.8752795052721</v>
       </c>
       <c r="S16" t="n">
-        <v>295.531882531128</v>
+        <v>295.5318825311273</v>
       </c>
       <c r="T16" t="n">
-        <v>271.9125994751477</v>
+        <v>271.9125994751471</v>
       </c>
       <c r="U16" t="n">
-        <v>182.7202649986688</v>
+        <v>182.7202649986683</v>
       </c>
       <c r="V16" t="n">
-        <v>137.515054898499</v>
+        <v>137.5150548984987</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692989</v>
+        <v>46.65157014692966</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050499</v>
+        <v>24.87015780050488</v>
       </c>
       <c r="Y16" t="n">
         <v>7.915192518801414</v>
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.7349002271183</v>
+        <v>259.7349002271184</v>
       </c>
       <c r="C17" t="n">
-        <v>239.1706370796986</v>
+        <v>239.1706370796985</v>
       </c>
       <c r="D17" t="n">
         <v>231.1653009413208</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368735</v>
+        <v>189.1127401368731</v>
       </c>
       <c r="F17" t="n">
-        <v>115.0194343037622</v>
+        <v>115.0194343037618</v>
       </c>
       <c r="G17" t="n">
-        <v>25.14115287666358</v>
+        <v>25.1411528766636</v>
       </c>
       <c r="H17" t="n">
         <v>7.915192518801414</v>
       </c>
       <c r="I17" t="n">
-        <v>7.915192518801414</v>
+        <v>62.904823773292</v>
       </c>
       <c r="J17" t="n">
-        <v>7.915192518801414</v>
+        <v>62.904823773292</v>
       </c>
       <c r="K17" t="n">
-        <v>7.915192518801414</v>
+        <v>62.904823773292</v>
       </c>
       <c r="L17" t="n">
-        <v>56.47914923314349</v>
+        <v>111.4687804876341</v>
       </c>
       <c r="M17" t="n">
-        <v>139.3918680350438</v>
+        <v>194.3814992895344</v>
       </c>
       <c r="N17" t="n">
-        <v>216.8037652927431</v>
+        <v>271.7933965472337</v>
       </c>
       <c r="O17" t="n">
-        <v>252.9922659824226</v>
+        <v>307.9818972369131</v>
       </c>
       <c r="P17" t="n">
-        <v>297.8091185199032</v>
+        <v>307.9818972369131</v>
       </c>
       <c r="Q17" t="n">
-        <v>297.8091185199032</v>
+        <v>307.9818972369131</v>
       </c>
       <c r="R17" t="n">
-        <v>395.7596259400707</v>
+        <v>307.9818972369131</v>
       </c>
       <c r="S17" t="n">
-        <v>395.7596259400707</v>
+        <v>307.9818972369131</v>
       </c>
       <c r="T17" t="n">
-        <v>395.7596259400707</v>
+        <v>307.9818972369131</v>
       </c>
       <c r="U17" t="n">
-        <v>395.7596259400707</v>
+        <v>386.8822036165502</v>
       </c>
       <c r="V17" t="n">
         <v>395.7596259400707</v>
@@ -5555,10 +5555,10 @@
         <v>387.6287300203398</v>
       </c>
       <c r="X17" t="n">
-        <v>357.3905103946097</v>
+        <v>357.3905103946099</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.4221360984314</v>
+        <v>304.4221360984315</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>107.8544919986173</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="C18" t="n">
-        <v>107.8544919986173</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="D18" t="n">
-        <v>107.8544919986173</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="E18" t="n">
-        <v>7.915192518801414</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="F18" t="n">
-        <v>7.915192518801414</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="G18" t="n">
-        <v>7.915192518801414</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="H18" t="n">
-        <v>7.915192518801414</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="I18" t="n">
         <v>7.915192518801414</v>
@@ -5595,19 +5595,19 @@
         <v>7.915192518801414</v>
       </c>
       <c r="K18" t="n">
-        <v>7.915192518801414</v>
+        <v>46.8876093073556</v>
       </c>
       <c r="L18" t="n">
-        <v>105.8656999389689</v>
+        <v>144.8381167275231</v>
       </c>
       <c r="M18" t="n">
-        <v>115.0401959957312</v>
+        <v>242.7886241476906</v>
       </c>
       <c r="N18" t="n">
-        <v>212.9907034158987</v>
+        <v>340.7391315678581</v>
       </c>
       <c r="O18" t="n">
-        <v>310.9412108360661</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="P18" t="n">
         <v>395.7596259400707</v>
@@ -5625,19 +5625,19 @@
         <v>389.6346686569536</v>
       </c>
       <c r="U18" t="n">
-        <v>307.7330909582489</v>
+        <v>389.6346686569536</v>
       </c>
       <c r="V18" t="n">
-        <v>207.7937914784331</v>
+        <v>389.6346686569536</v>
       </c>
       <c r="W18" t="n">
-        <v>207.7937914784331</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="X18" t="n">
-        <v>207.7937914784331</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="Y18" t="n">
-        <v>107.8544919986173</v>
+        <v>189.7560696973219</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="M19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="N19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="O19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="P19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="R19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="S19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="T19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="U19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="V19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="W19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="X19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Y19" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>259.7349002271184</v>
+        <v>259.7349002271183</v>
       </c>
       <c r="C20" t="n">
-        <v>239.1706370796985</v>
+        <v>239.1706370796986</v>
       </c>
       <c r="D20" t="n">
         <v>231.1653009413208</v>
       </c>
       <c r="E20" t="n">
-        <v>189.1127401368731</v>
+        <v>189.1127401368735</v>
       </c>
       <c r="F20" t="n">
-        <v>115.0194343037618</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G20" t="n">
         <v>25.1411528766636</v>
@@ -5774,16 +5774,16 @@
         <v>252.9922659824226</v>
       </c>
       <c r="R20" t="n">
-        <v>252.9922659824226</v>
+        <v>316.8593195604336</v>
       </c>
       <c r="S20" t="n">
-        <v>350.9427734025901</v>
+        <v>316.8593195604336</v>
       </c>
       <c r="T20" t="n">
-        <v>386.8822036165502</v>
+        <v>316.8593195604336</v>
       </c>
       <c r="U20" t="n">
-        <v>386.8822036165502</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="V20" t="n">
         <v>395.7596259400707</v>
@@ -5792,10 +5792,10 @@
         <v>387.6287300203398</v>
       </c>
       <c r="X20" t="n">
-        <v>357.3905103946099</v>
+        <v>357.3905103946097</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.4221360984315</v>
+        <v>304.4221360984314</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189.7560696973219</v>
+        <v>160.2573252255771</v>
       </c>
       <c r="C21" t="n">
-        <v>89.81677021750608</v>
+        <v>160.2573252255771</v>
       </c>
       <c r="D21" t="n">
-        <v>89.81677021750608</v>
+        <v>160.2573252255771</v>
       </c>
       <c r="E21" t="n">
-        <v>89.81677021750608</v>
+        <v>160.2573252255771</v>
       </c>
       <c r="F21" t="n">
-        <v>89.81677021750608</v>
+        <v>160.2573252255771</v>
       </c>
       <c r="G21" t="n">
-        <v>89.81677021750608</v>
+        <v>160.2573252255771</v>
       </c>
       <c r="H21" t="n">
-        <v>89.81677021750608</v>
+        <v>160.2573252255771</v>
       </c>
       <c r="I21" t="n">
-        <v>7.915192518801414</v>
+        <v>60.31802574576129</v>
       </c>
       <c r="J21" t="n">
         <v>7.915192518801414</v>
@@ -5835,13 +5835,13 @@
         <v>7.915192518801414</v>
       </c>
       <c r="L21" t="n">
-        <v>105.8656999389689</v>
+        <v>17.08968857556366</v>
       </c>
       <c r="M21" t="n">
-        <v>203.8162073591364</v>
+        <v>115.0401959957312</v>
       </c>
       <c r="N21" t="n">
-        <v>301.7667147793039</v>
+        <v>212.9907034158987</v>
       </c>
       <c r="O21" t="n">
         <v>310.9412108360661</v>
@@ -5856,25 +5856,25 @@
         <v>289.6953691771378</v>
       </c>
       <c r="S21" t="n">
-        <v>289.6953691771378</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="T21" t="n">
-        <v>289.6953691771378</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="U21" t="n">
         <v>189.7560696973219</v>
       </c>
       <c r="V21" t="n">
-        <v>189.7560696973219</v>
+        <v>160.2573252255771</v>
       </c>
       <c r="W21" t="n">
-        <v>189.7560696973219</v>
+        <v>160.2573252255771</v>
       </c>
       <c r="X21" t="n">
-        <v>189.7560696973219</v>
+        <v>160.2573252255771</v>
       </c>
       <c r="Y21" t="n">
-        <v>189.7560696973219</v>
+        <v>160.2573252255771</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.7349002271187</v>
+        <v>259.7349002271183</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1706370796988</v>
+        <v>239.1706370796986</v>
       </c>
       <c r="D23" t="n">
-        <v>231.165300941321</v>
+        <v>231.1653009413208</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1127401368734</v>
+        <v>189.1127401368735</v>
       </c>
       <c r="F23" t="n">
-        <v>115.0194343037621</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G23" t="n">
-        <v>25.14115287666361</v>
+        <v>25.1411528766636</v>
       </c>
       <c r="H23" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I23" t="n">
-        <v>96.31420339138253</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J23" t="n">
-        <v>96.31420339138253</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K23" t="n">
-        <v>96.31420339138253</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L23" t="n">
-        <v>144.8781601057246</v>
+        <v>56.47914923314349</v>
       </c>
       <c r="M23" t="n">
-        <v>227.7908789076249</v>
+        <v>139.3918680350438</v>
       </c>
       <c r="N23" t="n">
-        <v>305.2027761653242</v>
+        <v>216.8037652927431</v>
       </c>
       <c r="O23" t="n">
-        <v>341.3912768550038</v>
+        <v>252.9922659824226</v>
       </c>
       <c r="P23" t="n">
-        <v>341.3912768550038</v>
+        <v>252.9922659824226</v>
       </c>
       <c r="Q23" t="n">
-        <v>395.759625940071</v>
+        <v>350.9427734025901</v>
       </c>
       <c r="R23" t="n">
-        <v>395.759625940071</v>
+        <v>386.8822036165502</v>
       </c>
       <c r="S23" t="n">
-        <v>395.759625940071</v>
+        <v>386.8822036165502</v>
       </c>
       <c r="T23" t="n">
-        <v>395.759625940071</v>
+        <v>386.8822036165502</v>
       </c>
       <c r="U23" t="n">
-        <v>395.759625940071</v>
+        <v>386.8822036165502</v>
       </c>
       <c r="V23" t="n">
-        <v>395.759625940071</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="W23" t="n">
-        <v>387.6287300203401</v>
+        <v>387.6287300203398</v>
       </c>
       <c r="X23" t="n">
-        <v>357.3905103946102</v>
+        <v>357.3905103946097</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4221360984318</v>
+        <v>304.4221360984314</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>189.7560696973221</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="C24" t="n">
-        <v>89.81677021750615</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="D24" t="n">
-        <v>89.81677021750615</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="E24" t="n">
-        <v>7.91519251880142</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="F24" t="n">
-        <v>7.91519251880142</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="G24" t="n">
-        <v>7.91519251880142</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="H24" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I24" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J24" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K24" t="n">
-        <v>7.91519251880142</v>
+        <v>46.8876093073556</v>
       </c>
       <c r="L24" t="n">
-        <v>101.9081036795682</v>
+        <v>115.0401959957312</v>
       </c>
       <c r="M24" t="n">
-        <v>199.8586110997358</v>
+        <v>115.0401959957312</v>
       </c>
       <c r="N24" t="n">
-        <v>297.8091185199034</v>
+        <v>212.9907034158987</v>
       </c>
       <c r="O24" t="n">
-        <v>395.759625940071</v>
+        <v>310.9412108360661</v>
       </c>
       <c r="P24" t="n">
-        <v>395.759625940071</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q24" t="n">
-        <v>389.6346686569539</v>
+        <v>389.6346686569536</v>
       </c>
       <c r="R24" t="n">
-        <v>389.6346686569539</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="S24" t="n">
-        <v>389.6346686569539</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="T24" t="n">
-        <v>389.6346686569539</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="U24" t="n">
-        <v>389.6346686569539</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="V24" t="n">
-        <v>289.695369177138</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="W24" t="n">
-        <v>289.695369177138</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="X24" t="n">
-        <v>189.7560696973221</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.7560696973221</v>
+        <v>189.7560696973219</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="M25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="N25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="O25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="P25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="R25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="S25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="T25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="U25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="V25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="W25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="X25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.91519251880142</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.891650267093</v>
+        <v>1024.891650267094</v>
       </c>
       <c r="C26" t="n">
-        <v>886.1595461907648</v>
+        <v>886.1595461907655</v>
       </c>
       <c r="D26" t="n">
-        <v>759.986369123478</v>
+        <v>759.9863691234788</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7659673901217</v>
+        <v>599.7659673901226</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281014</v>
+        <v>407.5048206281023</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4586982720939</v>
+        <v>199.4586982720947</v>
       </c>
       <c r="H26" t="n">
-        <v>64.0648969853237</v>
+        <v>64.06489698532366</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J26" t="n">
         <v>171.8005131365275</v>
@@ -6245,22 +6245,22 @@
         <v>1662.834462498258</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.013205690999</v>
+        <v>1786.013205691</v>
       </c>
       <c r="R26" t="n">
         <v>1804.546245968433</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.013473208036</v>
+        <v>1790.013473208037</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.363449404578</v>
+        <v>1780.363449404579</v>
       </c>
       <c r="U26" t="n">
         <v>1742.697910668953</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.587739695681</v>
+        <v>1633.587739695682</v>
       </c>
       <c r="W26" t="n">
         <v>1507.289002847042</v>
@@ -6269,7 +6269,7 @@
         <v>1358.882942292403</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.746727067315</v>
+        <v>1187.746727067316</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>249.2738743852968</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C27" t="n">
-        <v>249.2738743852968</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K27" t="n">
-        <v>75.06334170792283</v>
+        <v>75.06334170792285</v>
       </c>
       <c r="L27" t="n">
         <v>193.7531079096929</v>
@@ -6333,22 +6333,22 @@
         <v>801.5495631391819</v>
       </c>
       <c r="T27" t="n">
-        <v>584.4329156981836</v>
+        <v>799.4437382695104</v>
       </c>
       <c r="U27" t="n">
         <v>559.8198451181303</v>
       </c>
       <c r="V27" t="n">
-        <v>531.750949593091</v>
+        <v>316.7401270217644</v>
       </c>
       <c r="W27" t="n">
-        <v>442.9367696175544</v>
+        <v>51.2179672246911</v>
       </c>
       <c r="X27" t="n">
-        <v>438.4395978055775</v>
+        <v>46.72079541271423</v>
       </c>
       <c r="Y27" t="n">
-        <v>427.8097273122319</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09092491936865</v>
+        <v>75.45396469873498</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09092491936865</v>
+        <v>75.45396469873498</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09092491936865</v>
+        <v>75.45396469873498</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09092491936865</v>
+        <v>75.45396469873498</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09092491936865</v>
+        <v>75.45396469873498</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09092491936865</v>
+        <v>75.45396469873498</v>
       </c>
       <c r="N28" t="n">
-        <v>96.26430540999567</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="O28" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="P28" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="R28" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="S28" t="n">
-        <v>247.9206018387766</v>
+        <v>247.9206018387763</v>
       </c>
       <c r="T28" t="n">
-        <v>236.9324876316161</v>
+        <v>236.9324876316158</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3713220039569</v>
+        <v>160.3713220039567</v>
       </c>
       <c r="V28" t="n">
-        <v>127.797280752607</v>
+        <v>127.7972807526068</v>
       </c>
       <c r="W28" t="n">
-        <v>49.5649648498576</v>
+        <v>49.56496484985749</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225246</v>
+        <v>40.41472135225241</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C29" t="n">
-        <v>886.1595461907654</v>
+        <v>886.1595461907652</v>
       </c>
       <c r="D29" t="n">
         <v>759.9863691234787</v>
       </c>
       <c r="E29" t="n">
-        <v>599.7659673901223</v>
+        <v>599.7659673901225</v>
       </c>
       <c r="F29" t="n">
-        <v>407.504820628102</v>
+        <v>407.5048206281023</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4586982720946</v>
+        <v>199.4586982720948</v>
       </c>
       <c r="H29" t="n">
-        <v>64.06489698532366</v>
+        <v>64.06489698532346</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8005131365271</v>
+        <v>171.8005131365275</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3583775511672</v>
+        <v>377.3583775511677</v>
       </c>
       <c r="L29" t="n">
-        <v>636.6544414676666</v>
+        <v>636.6544414676672</v>
       </c>
       <c r="M29" t="n">
-        <v>930.2992674717242</v>
+        <v>930.2992674717249</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.443271931581</v>
+        <v>1218.443271931582</v>
       </c>
       <c r="O29" t="n">
         <v>1465.363879823418</v>
@@ -6494,16 +6494,16 @@
         <v>1780.363449404578</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.587739695683</v>
+        <v>1633.587739695682</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.289002847043</v>
+        <v>1507.289002847042</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.882942292404</v>
+        <v>1358.882942292403</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.746727067316</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>186.3316241758205</v>
+        <v>163.0349268576463</v>
       </c>
       <c r="C30" t="n">
-        <v>186.3316241758205</v>
+        <v>163.0349268576463</v>
       </c>
       <c r="D30" t="n">
-        <v>186.3316241758205</v>
+        <v>163.0349268576463</v>
       </c>
       <c r="E30" t="n">
-        <v>186.3316241758205</v>
+        <v>163.0349268576463</v>
       </c>
       <c r="F30" t="n">
-        <v>186.3316241758205</v>
+        <v>163.0349268576463</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09092491936865</v>
+        <v>163.0349268576463</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K30" t="n">
-        <v>75.06334170792283</v>
+        <v>75.06334170792285</v>
       </c>
       <c r="L30" t="n">
         <v>193.7531079096929</v>
@@ -6570,22 +6570,22 @@
         <v>801.5495631391819</v>
       </c>
       <c r="T30" t="n">
-        <v>584.4329156981836</v>
+        <v>799.4437382695104</v>
       </c>
       <c r="U30" t="n">
-        <v>559.8198451181303</v>
+        <v>690.6402565290433</v>
       </c>
       <c r="V30" t="n">
-        <v>470.8572357508516</v>
+        <v>447.5605384326774</v>
       </c>
       <c r="W30" t="n">
-        <v>416.4694890524697</v>
+        <v>178.1619691629687</v>
       </c>
       <c r="X30" t="n">
-        <v>411.9723172404928</v>
+        <v>173.6647973509919</v>
       </c>
       <c r="Y30" t="n">
-        <v>186.3316241758205</v>
+        <v>163.0349268576463</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="L31" t="n">
-        <v>75.45396469873515</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="M31" t="n">
-        <v>75.45396469873515</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="N31" t="n">
-        <v>270.6328299641015</v>
+        <v>96.26430540999499</v>
       </c>
       <c r="O31" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="P31" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="R31" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="S31" t="n">
-        <v>247.9206018387764</v>
+        <v>247.9206018387761</v>
       </c>
       <c r="T31" t="n">
-        <v>236.9324876316159</v>
+        <v>236.9324876316156</v>
       </c>
       <c r="U31" t="n">
-        <v>160.3713220039568</v>
+        <v>160.3713220039566</v>
       </c>
       <c r="V31" t="n">
-        <v>127.7972807526069</v>
+        <v>127.7972807526067</v>
       </c>
       <c r="W31" t="n">
-        <v>49.56496484985754</v>
+        <v>49.56496484985743</v>
       </c>
       <c r="X31" t="n">
-        <v>40.41472135225244</v>
+        <v>40.41472135225239</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09092491936865</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>1024.891650267093</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1595461907649</v>
+        <v>886.1595461907648</v>
       </c>
       <c r="D32" t="n">
-        <v>759.9863691234783</v>
+        <v>759.986369123478</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901221</v>
+        <v>599.7659673901217</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5048206281019</v>
+        <v>407.5048206281014</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4586982720945</v>
+        <v>199.4586982720939</v>
       </c>
       <c r="H32" t="n">
-        <v>64.06489698532346</v>
+        <v>64.06489698532361</v>
       </c>
       <c r="I32" t="n">
         <v>36.09092491936866</v>
@@ -6701,7 +6701,7 @@
         <v>171.8005131365276</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3583775511679</v>
+        <v>377.3583775511678</v>
       </c>
       <c r="L32" t="n">
         <v>636.6544414676673</v>
@@ -6713,10 +6713,10 @@
         <v>1218.443271931582</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823418</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.013205690999</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>163.0349268576463</v>
+        <v>486.8388299926837</v>
       </c>
       <c r="C33" t="n">
-        <v>163.0349268576463</v>
+        <v>486.8388299926837</v>
       </c>
       <c r="D33" t="n">
-        <v>163.0349268576463</v>
+        <v>486.8388299926837</v>
       </c>
       <c r="E33" t="n">
-        <v>163.0349268576463</v>
+        <v>313.2756261140981</v>
       </c>
       <c r="F33" t="n">
-        <v>163.0349268576463</v>
+        <v>313.2756261140981</v>
       </c>
       <c r="G33" t="n">
         <v>163.0349268576463</v>
@@ -6801,28 +6801,28 @@
         <v>801.5495631391819</v>
       </c>
       <c r="R33" t="n">
-        <v>665.8648257447073</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="S33" t="n">
-        <v>665.8648257447073</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="T33" t="n">
-        <v>663.7590008750358</v>
+        <v>799.4437382695104</v>
       </c>
       <c r="U33" t="n">
-        <v>639.1459302949825</v>
+        <v>584.4225145214272</v>
       </c>
       <c r="V33" t="n">
-        <v>611.0770347699433</v>
+        <v>556.353618996388</v>
       </c>
       <c r="W33" t="n">
-        <v>556.6892880715615</v>
+        <v>501.9658722980061</v>
       </c>
       <c r="X33" t="n">
-        <v>352.200650277927</v>
+        <v>497.4687004860293</v>
       </c>
       <c r="Y33" t="n">
-        <v>341.5707797845814</v>
+        <v>486.8388299926837</v>
       </c>
     </row>
     <row r="34">
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.98228066320765</v>
+        <v>70.54836606578382</v>
       </c>
       <c r="C34" t="n">
-        <v>70.98228066320765</v>
+        <v>70.54836606578382</v>
       </c>
       <c r="D34" t="n">
-        <v>70.98228066320765</v>
+        <v>70.54836606578382</v>
       </c>
       <c r="E34" t="n">
-        <v>70.98228066320765</v>
+        <v>70.54836606578382</v>
       </c>
       <c r="F34" t="n">
-        <v>70.98228066320765</v>
+        <v>70.54836606578382</v>
       </c>
       <c r="G34" t="n">
-        <v>70.98228066320765</v>
+        <v>70.54836606578382</v>
       </c>
       <c r="H34" t="n">
-        <v>70.98228066320765</v>
+        <v>117.1608992936117</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98228066320765</v>
+        <v>117.1608992936117</v>
       </c>
       <c r="J34" t="n">
-        <v>70.98228066320765</v>
+        <v>117.1608992936117</v>
       </c>
       <c r="K34" t="n">
-        <v>70.98228066320765</v>
+        <v>117.1608992936117</v>
       </c>
       <c r="L34" t="n">
-        <v>70.98228066320765</v>
+        <v>117.1608992936117</v>
       </c>
       <c r="M34" t="n">
-        <v>257.5709322579432</v>
+        <v>117.1608992936117</v>
       </c>
       <c r="N34" t="n">
-        <v>257.5709322579432</v>
+        <v>117.1608992936117</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6328299641011</v>
+        <v>117.1608992936117</v>
       </c>
       <c r="P34" t="n">
         <v>270.6328299641011</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>821.1586532866072</v>
+        <v>821.1586532866081</v>
       </c>
       <c r="C35" t="n">
-        <v>710.4005212762336</v>
+        <v>710.4005212762347</v>
       </c>
       <c r="D35" t="n">
-        <v>612.201316274902</v>
+        <v>612.2013162749029</v>
       </c>
       <c r="E35" t="n">
-        <v>479.9548866075007</v>
+        <v>479.9548866075013</v>
       </c>
       <c r="F35" t="n">
-        <v>315.6677119114354</v>
+        <v>315.6677119114361</v>
       </c>
       <c r="G35" t="n">
-        <v>135.5955616213834</v>
+        <v>135.5955616213833</v>
       </c>
       <c r="H35" t="n">
         <v>28.17573240056725</v>
@@ -6935,34 +6935,34 @@
         <v>28.17573240056725</v>
       </c>
       <c r="J35" t="n">
-        <v>191.3026106395686</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2777650760513</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="L35" t="n">
-        <v>472.8417217903934</v>
+        <v>314.8890863389092</v>
       </c>
       <c r="M35" t="n">
-        <v>555.7544405922937</v>
+        <v>604.4695675149894</v>
       </c>
       <c r="N35" t="n">
-        <v>745.7910967640385</v>
+        <v>681.8814647726888</v>
       </c>
       <c r="O35" t="n">
-        <v>1020.128994677718</v>
+        <v>956.2193626863681</v>
       </c>
       <c r="P35" t="n">
-        <v>1245.0168673744</v>
+        <v>1181.107235383051</v>
       </c>
       <c r="Q35" t="n">
-        <v>1395.612900588984</v>
+        <v>1331.703268597635</v>
       </c>
       <c r="R35" t="n">
-        <v>1395.612900588984</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="S35" t="n">
-        <v>1408.786620028362</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="T35" t="n">
         <v>1408.786620028362</v>
@@ -6971,16 +6971,16 @@
         <v>1399.095053358692</v>
       </c>
       <c r="V35" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W35" t="n">
-        <v>1219.634089668691</v>
+        <v>1219.634089668692</v>
       </c>
       <c r="X35" t="n">
-        <v>1099.202001180007</v>
+        <v>1099.202001180008</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.0397580208744</v>
+        <v>956.0397580208752</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>304.6328835082841</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="C36" t="n">
-        <v>304.6328835082841</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="D36" t="n">
-        <v>304.6328835082841</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E36" t="n">
-        <v>241.006281910283</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="F36" t="n">
-        <v>80.57856562752713</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="G36" t="n">
-        <v>80.57856562752713</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="H36" t="n">
-        <v>80.57856562752713</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I36" t="n">
-        <v>80.57856562752713</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J36" t="n">
         <v>28.17573240056725</v>
@@ -7047,19 +7047,19 @@
         <v>793.6343706203805</v>
       </c>
       <c r="U36" t="n">
-        <v>793.6343706203805</v>
+        <v>742.8179125773361</v>
       </c>
       <c r="V36" t="n">
-        <v>550.5546525240146</v>
+        <v>742.7229891182519</v>
       </c>
       <c r="W36" t="n">
-        <v>524.1408778915877</v>
+        <v>473.3244198485432</v>
       </c>
       <c r="X36" t="n">
-        <v>304.6328835082841</v>
+        <v>253.8164254652396</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.6328835082841</v>
+        <v>28.17573240056725</v>
       </c>
     </row>
     <row r="37">
@@ -7096,40 +7096,40 @@
         <v>28.17573240056725</v>
       </c>
       <c r="K37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="L37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="M37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="N37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="O37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="P37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="R37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="S37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="T37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="U37" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275644</v>
       </c>
       <c r="V37" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736155</v>
       </c>
       <c r="W37" t="n">
         <v>28.17573240056725</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>821.1586532866078</v>
+        <v>821.1586532866074</v>
       </c>
       <c r="C38" t="n">
-        <v>710.4005212762343</v>
+        <v>710.4005212762336</v>
       </c>
       <c r="D38" t="n">
-        <v>612.2013162749025</v>
+        <v>612.201316274902</v>
       </c>
       <c r="E38" t="n">
-        <v>479.9548866075014</v>
+        <v>479.9548866075008</v>
       </c>
       <c r="F38" t="n">
-        <v>315.6677119114361</v>
+        <v>315.6677119114357</v>
       </c>
       <c r="G38" t="n">
-        <v>135.5955616213833</v>
+        <v>135.5955616213834</v>
       </c>
       <c r="H38" t="n">
         <v>28.17573240056725</v>
@@ -7172,34 +7172,34 @@
         <v>28.17573240056725</v>
       </c>
       <c r="J38" t="n">
-        <v>191.3026106395686</v>
+        <v>191.3026106395687</v>
       </c>
       <c r="K38" t="n">
-        <v>424.2777650760514</v>
+        <v>416.5725491207826</v>
       </c>
       <c r="L38" t="n">
-        <v>554.2456544850479</v>
+        <v>465.1365058351247</v>
       </c>
       <c r="M38" t="n">
-        <v>875.3077705109481</v>
+        <v>548.049224637025</v>
       </c>
       <c r="N38" t="n">
-        <v>1190.869064992647</v>
+        <v>863.6105191187241</v>
       </c>
       <c r="O38" t="n">
-        <v>1227.057565682327</v>
+        <v>1137.948417032404</v>
       </c>
       <c r="P38" t="n">
-        <v>1227.057565682327</v>
+        <v>1362.836289729086</v>
       </c>
       <c r="Q38" t="n">
-        <v>1377.653598896911</v>
+        <v>1362.836289729086</v>
       </c>
       <c r="R38" t="n">
-        <v>1377.653598896911</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="S38" t="n">
-        <v>1390.827318336289</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="T38" t="n">
         <v>1408.786620028362</v>
@@ -7208,7 +7208,7 @@
         <v>1399.095053358692</v>
       </c>
       <c r="V38" t="n">
-        <v>1317.958854451376</v>
+        <v>1317.958854451375</v>
       </c>
       <c r="W38" t="n">
         <v>1219.634089668691</v>
@@ -7217,7 +7217,7 @@
         <v>1099.202001180007</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.0397580208748</v>
+        <v>956.0397580208745</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>541.4849794641971</v>
+        <v>452.9050822074599</v>
       </c>
       <c r="C39" t="n">
-        <v>541.4849794641971</v>
+        <v>263.4928079404236</v>
       </c>
       <c r="D39" t="n">
-        <v>541.4849794641971</v>
+        <v>263.4928079404236</v>
       </c>
       <c r="E39" t="n">
-        <v>367.9217755856115</v>
+        <v>263.4928079404236</v>
       </c>
       <c r="F39" t="n">
-        <v>207.4940593028556</v>
+        <v>263.4928079404236</v>
       </c>
       <c r="G39" t="n">
-        <v>155.1197343388449</v>
+        <v>113.2521086839718</v>
       </c>
       <c r="H39" t="n">
         <v>28.17573240056725</v>
@@ -7275,28 +7275,28 @@
         <v>793.6343706203805</v>
       </c>
       <c r="R39" t="n">
-        <v>793.6343706203805</v>
+        <v>657.9496332259059</v>
       </c>
       <c r="S39" t="n">
-        <v>793.6343706203805</v>
+        <v>657.9496332259059</v>
       </c>
       <c r="T39" t="n">
-        <v>793.6343706203805</v>
+        <v>657.9496332259059</v>
       </c>
       <c r="U39" t="n">
-        <v>793.6343706203805</v>
+        <v>657.9496332259059</v>
       </c>
       <c r="V39" t="n">
-        <v>793.5394471612964</v>
+        <v>657.8547097668219</v>
       </c>
       <c r="W39" t="n">
-        <v>767.1256725288695</v>
+        <v>631.440935134395</v>
       </c>
       <c r="X39" t="n">
-        <v>767.1256725288695</v>
+        <v>631.440935134395</v>
       </c>
       <c r="Y39" t="n">
-        <v>541.4849794641971</v>
+        <v>631.440935134395</v>
       </c>
     </row>
     <row r="40">
@@ -7318,55 +7318,55 @@
         <v>28.17573240056725</v>
       </c>
       <c r="F40" t="n">
-        <v>28.17573240056725</v>
+        <v>128.787516228305</v>
       </c>
       <c r="G40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="H40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="I40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="J40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="K40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="L40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="M40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="N40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="O40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="P40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="R40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="S40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="T40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="U40" t="n">
-        <v>83.03414542275644</v>
+        <v>83.03414542275638</v>
       </c>
       <c r="V40" t="n">
-        <v>78.43407623736155</v>
+        <v>78.43407623736152</v>
       </c>
       <c r="W40" t="n">
         <v>28.17573240056725</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>821.158653286607</v>
+        <v>821.1586532866074</v>
       </c>
       <c r="C41" t="n">
-        <v>710.4005212762332</v>
+        <v>710.4005212762337</v>
       </c>
       <c r="D41" t="n">
-        <v>612.2013162749017</v>
+        <v>612.2013162749022</v>
       </c>
       <c r="E41" t="n">
-        <v>479.9548866075006</v>
+        <v>479.9548866075008</v>
       </c>
       <c r="F41" t="n">
-        <v>315.6677119114354</v>
+        <v>315.6677119114357</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5955616213833</v>
+        <v>135.5955616213834</v>
       </c>
       <c r="H41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J41" t="n">
-        <v>28.17573240056725</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K41" t="n">
-        <v>261.15088683705</v>
+        <v>424.2777650760513</v>
       </c>
       <c r="L41" t="n">
-        <v>547.864240775392</v>
+        <v>710.9911190143931</v>
       </c>
       <c r="M41" t="n">
-        <v>630.7769595772922</v>
+        <v>1032.053235040293</v>
       </c>
       <c r="N41" t="n">
-        <v>708.1888568349916</v>
+        <v>1109.465132297993</v>
       </c>
       <c r="O41" t="n">
-        <v>982.526754748671</v>
+        <v>1145.653632987672</v>
       </c>
       <c r="P41" t="n">
-        <v>1181.10723538305</v>
+        <v>1212.240256514503</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.703268597634</v>
+        <v>1362.836289729087</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.653598896911</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.827318336288</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="T41" t="n">
-        <v>1408.786620028362</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="U41" t="n">
         <v>1399.095053358692</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.63408966869</v>
+        <v>1219.634089668691</v>
       </c>
       <c r="X41" t="n">
-        <v>1099.202001180006</v>
+        <v>1099.202001180007</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.039758020874</v>
+        <v>956.0397580208745</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>152.197403980783</v>
+        <v>499.6242641787433</v>
       </c>
       <c r="C42" t="n">
-        <v>152.197403980783</v>
+        <v>499.6242641787433</v>
       </c>
       <c r="D42" t="n">
-        <v>152.197403980783</v>
+        <v>338.844147939775</v>
       </c>
       <c r="E42" t="n">
-        <v>152.197403980783</v>
+        <v>338.844147939775</v>
       </c>
       <c r="F42" t="n">
-        <v>28.17573240056725</v>
+        <v>178.416431657019</v>
       </c>
       <c r="G42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K42" t="n">
-        <v>67.14814918912143</v>
+        <v>67.14814918912144</v>
       </c>
       <c r="L42" t="n">
         <v>185.8379153908915</v>
@@ -7515,25 +7515,25 @@
         <v>793.6343706203805</v>
       </c>
       <c r="S42" t="n">
-        <v>600.2267496365109</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="T42" t="n">
-        <v>600.2267496365109</v>
+        <v>576.5177231793822</v>
       </c>
       <c r="U42" t="n">
-        <v>600.2267496365109</v>
+        <v>576.5177231793822</v>
       </c>
       <c r="V42" t="n">
-        <v>600.1318261774268</v>
+        <v>576.422799720298</v>
       </c>
       <c r="W42" t="n">
-        <v>330.7332569077181</v>
+        <v>550.0090250878711</v>
       </c>
       <c r="X42" t="n">
-        <v>330.7332569077181</v>
+        <v>550.0090250878711</v>
       </c>
       <c r="Y42" t="n">
-        <v>330.7332569077181</v>
+        <v>499.6242641787433</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D43" t="n">
-        <v>28.17573240056725</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="E43" t="n">
-        <v>28.17573240056725</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="F43" t="n">
-        <v>28.17573240056725</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="G43" t="n">
-        <v>28.17573240056725</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="H43" t="n">
-        <v>28.17573240056725</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="I43" t="n">
-        <v>28.17573240056725</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="J43" t="n">
-        <v>28.17573240056725</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="K43" t="n">
-        <v>28.17573240056725</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="L43" t="n">
-        <v>28.17573240056725</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="M43" t="n">
-        <v>28.17573240056725</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="N43" t="n">
-        <v>131.6213389844605</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="O43" t="n">
-        <v>131.6213389844605</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="P43" t="n">
-        <v>131.6213389844605</v>
+        <v>122.5943058763635</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="R43" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="S43" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="T43" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="U43" t="n">
-        <v>83.03414542275644</v>
+        <v>83.03414542275657</v>
       </c>
       <c r="V43" t="n">
-        <v>78.43407623736155</v>
+        <v>78.43407623736162</v>
       </c>
       <c r="W43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>821.1586532866072</v>
+        <v>821.158653286608</v>
       </c>
       <c r="C44" t="n">
-        <v>710.4005212762336</v>
+        <v>710.4005212762343</v>
       </c>
       <c r="D44" t="n">
-        <v>612.201316274902</v>
+        <v>612.2013162749024</v>
       </c>
       <c r="E44" t="n">
-        <v>479.9548866075004</v>
+        <v>479.9548866075008</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6677119114352</v>
+        <v>315.6677119114356</v>
       </c>
       <c r="G44" t="n">
         <v>135.5955616213834</v>
       </c>
       <c r="H44" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I44" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J44" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K44" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="L44" t="n">
-        <v>314.8890863389091</v>
+        <v>314.8890863389092</v>
       </c>
       <c r="M44" t="n">
-        <v>397.8018051408094</v>
+        <v>397.8018051408096</v>
       </c>
       <c r="N44" t="n">
-        <v>681.8814647726891</v>
+        <v>713.0144859041405</v>
       </c>
       <c r="O44" t="n">
-        <v>956.2193626863684</v>
+        <v>987.3523838178199</v>
       </c>
       <c r="P44" t="n">
-        <v>1181.107235383051</v>
+        <v>1212.240256514503</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.703268597635</v>
+        <v>1362.836289729087</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.653598896911</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.827318336289</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="T44" t="n">
-        <v>1408.786620028362</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="U44" t="n">
         <v>1399.095053358692</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.634089668691</v>
+        <v>1219.634089668692</v>
       </c>
       <c r="X44" t="n">
-        <v>1099.202001180007</v>
+        <v>1099.202001180008</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.0397580208743</v>
+        <v>956.0397580208751</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>298.5001848269152</v>
+        <v>286.644797349575</v>
       </c>
       <c r="C45" t="n">
-        <v>109.087910559879</v>
+        <v>286.644797349575</v>
       </c>
       <c r="D45" t="n">
-        <v>28.17573240056725</v>
+        <v>286.644797349575</v>
       </c>
       <c r="E45" t="n">
-        <v>28.17573240056725</v>
+        <v>286.644797349575</v>
       </c>
       <c r="F45" t="n">
-        <v>28.17573240056725</v>
+        <v>286.644797349575</v>
       </c>
       <c r="G45" t="n">
-        <v>28.17573240056725</v>
+        <v>136.4040980931232</v>
       </c>
       <c r="H45" t="n">
-        <v>28.17573240056725</v>
+        <v>136.4040980931232</v>
       </c>
       <c r="I45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K45" t="n">
-        <v>67.14814918912141</v>
+        <v>67.14814918912148</v>
       </c>
       <c r="L45" t="n">
-        <v>185.8379153908914</v>
+        <v>185.8379153908916</v>
       </c>
       <c r="M45" t="n">
-        <v>369.0979385312079</v>
+        <v>369.0979385312081</v>
       </c>
       <c r="N45" t="n">
-        <v>575.6281987437104</v>
+        <v>575.6281987437108</v>
       </c>
       <c r="O45" t="n">
-        <v>708.8159555163759</v>
+        <v>708.8159555163763</v>
       </c>
       <c r="P45" t="n">
-        <v>793.6343706203804</v>
+        <v>793.634370620381</v>
       </c>
       <c r="Q45" t="n">
-        <v>793.6343706203804</v>
+        <v>793.634370620381</v>
       </c>
       <c r="R45" t="n">
-        <v>793.6343706203804</v>
+        <v>657.9496332259065</v>
       </c>
       <c r="S45" t="n">
-        <v>793.6343706203804</v>
+        <v>657.9496332259065</v>
       </c>
       <c r="T45" t="n">
-        <v>793.6343706203804</v>
+        <v>657.9496332259065</v>
       </c>
       <c r="U45" t="n">
-        <v>793.6343706203804</v>
+        <v>418.3257400745264</v>
       </c>
       <c r="V45" t="n">
-        <v>550.5546525240145</v>
+        <v>418.2308166154422</v>
       </c>
       <c r="W45" t="n">
-        <v>524.1408778915876</v>
+        <v>286.644797349575</v>
       </c>
       <c r="X45" t="n">
-        <v>524.1408778915876</v>
+        <v>286.644797349575</v>
       </c>
       <c r="Y45" t="n">
-        <v>298.5001848269152</v>
+        <v>286.644797349575</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="G46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="L46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="M46" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="N46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="O46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="P46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="R46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="S46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="T46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="U46" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275657</v>
       </c>
       <c r="V46" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736162</v>
       </c>
       <c r="W46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
   </sheetData>
@@ -8772,19 +8772,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>189.2568876825057</v>
+        <v>219.3557975125986</v>
       </c>
       <c r="M12" t="n">
-        <v>116.6657468248318</v>
+        <v>215.6056533098495</v>
       </c>
       <c r="N12" t="n">
         <v>200.9373406025671</v>
       </c>
       <c r="O12" t="n">
-        <v>219.6296017271814</v>
+        <v>176.2659521837926</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6887073069575</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9009,7 +9009,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>219.3557975125986</v>
+        <v>175.9921479692098</v>
       </c>
       <c r="M15" t="n">
         <v>215.6056533098495</v>
@@ -9018,7 +9018,7 @@
         <v>200.9373406025671</v>
       </c>
       <c r="O15" t="n">
-        <v>176.2659521837926</v>
+        <v>219.6296017271814</v>
       </c>
       <c r="P15" t="n">
         <v>120.6887073069575</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>219.3557975125986</v>
       </c>
       <c r="M18" t="n">
-        <v>125.932914558935</v>
+        <v>215.6056533098495</v>
       </c>
       <c r="N18" t="n">
         <v>200.9373406025671</v>
       </c>
       <c r="O18" t="n">
-        <v>219.6296017271814</v>
+        <v>176.2659521837926</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6887073069575</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,7 +9483,7 @@
         <v>132.0073960199548</v>
       </c>
       <c r="L21" t="n">
-        <v>219.3557975125986</v>
+        <v>129.6830587616842</v>
       </c>
       <c r="M21" t="n">
         <v>215.6056533098495</v>
@@ -9492,7 +9492,7 @@
         <v>200.9373406025671</v>
       </c>
       <c r="O21" t="n">
-        <v>129.956862976267</v>
+        <v>219.6296017271814</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>215.358225533406</v>
+        <v>189.2568876825057</v>
       </c>
       <c r="M24" t="n">
-        <v>215.6056533098495</v>
+        <v>116.6657468248318</v>
       </c>
       <c r="N24" t="n">
-        <v>200.9373406025672</v>
+        <v>200.9373406025671</v>
       </c>
       <c r="O24" t="n">
         <v>219.6296017271814</v>
       </c>
       <c r="P24" t="n">
-        <v>120.6887073069575</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.7313831925514</v>
+        <v>173.7313831925513</v>
       </c>
       <c r="C11" t="n">
-        <v>149.8496401958969</v>
+        <v>149.8496401958968</v>
       </c>
       <c r="D11" t="n">
-        <v>137.4163024569454</v>
+        <v>38.47639597192759</v>
       </c>
       <c r="E11" t="n">
-        <v>171.1230548763543</v>
+        <v>72.18314839133646</v>
       </c>
       <c r="F11" t="n">
-        <v>103.9034859697139</v>
+        <v>202.8433924547315</v>
       </c>
       <c r="G11" t="n">
-        <v>119.5306118077613</v>
+        <v>180.274931579654</v>
       </c>
       <c r="H11" t="n">
-        <v>81.45683152798618</v>
+        <v>47.60481394921715</v>
       </c>
       <c r="I11" t="n">
-        <v>40.19908950562706</v>
+        <v>40.19908950562692</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89230219312418</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>49.79374050860085</v>
+        <v>49.79374050860071</v>
       </c>
       <c r="V11" t="n">
-        <v>120.5239264238701</v>
+        <v>120.52392642387</v>
       </c>
       <c r="W11" t="n">
-        <v>137.540606640485</v>
+        <v>137.5406066404849</v>
       </c>
       <c r="X11" t="n">
-        <v>159.4268571094242</v>
+        <v>159.4268571094241</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.98980374815034</v>
+        <v>181.9297102331679</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.7313831925514</v>
+        <v>173.7313831925513</v>
       </c>
       <c r="C14" t="n">
-        <v>50.90973371087927</v>
+        <v>149.8496401958968</v>
       </c>
       <c r="D14" t="n">
-        <v>137.4163024569454</v>
+        <v>137.4163024569453</v>
       </c>
       <c r="E14" t="n">
-        <v>171.1230548763543</v>
+        <v>171.1230548763542</v>
       </c>
       <c r="F14" t="n">
-        <v>103.9034859697139</v>
+        <v>202.8433924547315</v>
       </c>
       <c r="G14" t="n">
-        <v>158.2165508538996</v>
+        <v>218.4705182927788</v>
       </c>
       <c r="H14" t="n">
-        <v>47.6048139492173</v>
+        <v>47.60481394921718</v>
       </c>
       <c r="I14" t="n">
-        <v>40.19908950562706</v>
+        <v>40.19908950562694</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>22.05838072575474</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>49.79374050860085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>120.5239264238701</v>
+        <v>21.58401993885235</v>
       </c>
       <c r="W14" t="n">
-        <v>137.540606640485</v>
+        <v>137.5406066404849</v>
       </c>
       <c r="X14" t="n">
-        <v>159.4268571094242</v>
+        <v>159.4268571094241</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.929710233168</v>
+        <v>94.58795754362625</v>
       </c>
     </row>
     <row r="15">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>352772.7980705837</v>
+      </c>
+      <c r="C2" t="n">
         <v>352772.7980705838</v>
       </c>
-      <c r="C2" t="n">
-        <v>352772.7980705839</v>
-      </c>
       <c r="D2" t="n">
-        <v>352772.7980705838</v>
+        <v>352772.7980705837</v>
       </c>
       <c r="E2" t="n">
+        <v>303996.0356081917</v>
+      </c>
+      <c r="F2" t="n">
         <v>303996.035608192</v>
-      </c>
-      <c r="F2" t="n">
-        <v>303996.0356081919</v>
       </c>
       <c r="G2" t="n">
         <v>353487.4195434144</v>
       </c>
       <c r="H2" t="n">
-        <v>353487.4195434143</v>
+        <v>353487.4195434144</v>
       </c>
       <c r="I2" t="n">
         <v>353487.4195434143</v>
       </c>
       <c r="J2" t="n">
-        <v>353487.4195434147</v>
+        <v>353487.4195434145</v>
       </c>
       <c r="K2" t="n">
         <v>353487.4195434146</v>
       </c>
       <c r="L2" t="n">
+        <v>353487.4195434148</v>
+      </c>
+      <c r="M2" t="n">
+        <v>353487.4195434147</v>
+      </c>
+      <c r="N2" t="n">
         <v>353487.4195434146</v>
-      </c>
-      <c r="M2" t="n">
-        <v>353487.4195434146</v>
-      </c>
-      <c r="N2" t="n">
-        <v>353487.4195434147</v>
       </c>
       <c r="O2" t="n">
         <v>353487.4195434147</v>
       </c>
       <c r="P2" t="n">
-        <v>353487.4195434147</v>
+        <v>353487.4195434146</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>273465.044586805</v>
+        <v>273465.0445868051</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158845.8973352048</v>
+        <v>158845.897335205</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>103592.8157439611</v>
+      </c>
+      <c r="M3" t="n">
+        <v>22155.38587623635</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="L3" t="n">
-        <v>103592.8157439612</v>
-      </c>
-      <c r="M3" t="n">
-        <v>22155.38587623632</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>66695.75573252962</v>
+        <v>66695.75573252968</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>467253.6573030353</v>
       </c>
       <c r="E4" t="n">
-        <v>361182.2424006842</v>
+        <v>361182.2424006844</v>
       </c>
       <c r="F4" t="n">
         <v>361182.2424006843</v>
@@ -26439,25 +26439,25 @@
         <v>431700.8089139007</v>
       </c>
       <c r="J4" t="n">
-        <v>430647.4817506725</v>
+        <v>430647.4817506726</v>
       </c>
       <c r="K4" t="n">
-        <v>430647.4817506726</v>
+        <v>430647.4817506727</v>
       </c>
       <c r="L4" t="n">
         <v>430647.4817506727</v>
       </c>
       <c r="M4" t="n">
-        <v>430205.6415347859</v>
+        <v>430205.641534786</v>
       </c>
       <c r="N4" t="n">
-        <v>430205.6415347859</v>
+        <v>430205.641534786</v>
       </c>
       <c r="O4" t="n">
         <v>430205.6415347859</v>
       </c>
       <c r="P4" t="n">
-        <v>430205.641534786</v>
+        <v>430205.6415347859</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25128.77385439976</v>
+        <v>25128.77385439977</v>
       </c>
       <c r="F5" t="n">
-        <v>25128.77385439976</v>
+        <v>25128.77385439977</v>
       </c>
       <c r="G5" t="n">
         <v>36014.9543878736</v>
@@ -26491,25 +26491,25 @@
         <v>36014.9543878736</v>
       </c>
       <c r="J5" t="n">
-        <v>47593.60131544278</v>
+        <v>47593.60131544279</v>
       </c>
       <c r="K5" t="n">
-        <v>47593.60131544278</v>
+        <v>47593.60131544279</v>
       </c>
       <c r="L5" t="n">
         <v>47593.60131544279</v>
       </c>
       <c r="M5" t="n">
-        <v>43906.28142019035</v>
+        <v>43906.28142019036</v>
       </c>
       <c r="N5" t="n">
+        <v>43906.28142019037</v>
+      </c>
+      <c r="O5" t="n">
         <v>43906.28142019036</v>
       </c>
-      <c r="O5" t="n">
-        <v>43906.28142019035</v>
-      </c>
       <c r="P5" t="n">
-        <v>43906.28142019035</v>
+        <v>43906.28142019036</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148108.4592324514</v>
+        <v>-148112.9256166567</v>
       </c>
       <c r="C6" t="n">
-        <v>-148108.4592324514</v>
+        <v>-148112.9256166567</v>
       </c>
       <c r="D6" t="n">
-        <v>-148108.4592324515</v>
+        <v>-148112.9256166567</v>
       </c>
       <c r="E6" t="n">
-        <v>-355780.025233697</v>
+        <v>-356089.3463832927</v>
       </c>
       <c r="F6" t="n">
-        <v>-82314.98064689219</v>
+        <v>-82624.30179648721</v>
       </c>
       <c r="G6" t="n">
-        <v>-217821.1595023211</v>
+        <v>-217821.159502321</v>
       </c>
       <c r="H6" t="n">
         <v>-114228.34375836</v>
       </c>
       <c r="I6" t="n">
-        <v>-114228.3437583601</v>
+        <v>-114228.34375836</v>
       </c>
       <c r="J6" t="n">
-        <v>-283599.5608579054</v>
+        <v>-283599.5608579059</v>
       </c>
       <c r="K6" t="n">
-        <v>-124753.6635227007</v>
+        <v>-124753.6635227009</v>
       </c>
       <c r="L6" t="n">
-        <v>-228346.4792666621</v>
+        <v>-228346.4792666617</v>
       </c>
       <c r="M6" t="n">
         <v>-142779.889287798</v>
       </c>
       <c r="N6" t="n">
-        <v>-120624.5034115615</v>
+        <v>-120624.5034115617</v>
       </c>
       <c r="O6" t="n">
-        <v>-187320.2591440912</v>
+        <v>-187320.2591440913</v>
       </c>
       <c r="P6" t="n">
         <v>-120624.5034115616</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G2" t="n">
         <v>329.8468768652333</v>
@@ -26707,7 +26707,7 @@
         <v>329.8468768652333</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K2" t="n">
         <v>212.8607143456135</v>
@@ -26716,13 +26716,13 @@
         <v>212.8607143456135</v>
       </c>
       <c r="M2" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="N2" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="O2" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="P2" t="n">
         <v>240.5549466909089</v>
@@ -26777,7 +26777,7 @@
         <v>104.1060083670286</v>
       </c>
       <c r="P3" t="n">
-        <v>104.1060083670286</v>
+        <v>104.1060083670287</v>
       </c>
     </row>
     <row r="4">
@@ -26808,16 +26808,16 @@
         <v>98.93990648501767</v>
       </c>
       <c r="I4" t="n">
-        <v>98.93990648501774</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1365614921082</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="K4" t="n">
         <v>451.1365614921082</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1365614921083</v>
+        <v>451.1365614921082</v>
       </c>
       <c r="M4" t="n">
         <v>352.1966550070906</v>
@@ -26826,10 +26826,10 @@
         <v>352.1966550070906</v>
       </c>
       <c r="O4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070907</v>
       </c>
       <c r="P4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070907</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.4910196799514</v>
+        <v>129.4910196799513</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.36969466566202</v>
+        <v>83.36969466566222</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>129.4910196799513</v>
+      </c>
+      <c r="M2" t="n">
+        <v>27.69423234529543</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="L2" t="n">
-        <v>129.4910196799515</v>
-      </c>
-      <c r="M2" t="n">
-        <v>27.6942323452954</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>83.36969466566202</v>
+        <v>83.36969466566211</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>352.1966550070904</v>
+        <v>352.1966550070906</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799514</v>
+        <v>129.4910196799513</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566202</v>
+        <v>83.36969466566222</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,31 +28087,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="D11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="H11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="J11" t="n">
-        <v>114.8344846805794</v>
+        <v>174.7202286920868</v>
       </c>
       <c r="K11" t="n">
         <v>5.226507866178949</v>
@@ -28132,31 +28132,31 @@
         <v>13.39547932052248</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.3776479086702</v>
+        <v>133.7072894413097</v>
       </c>
       <c r="R11" t="n">
-        <v>200.3558571852819</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="12">
@@ -28181,7 +28181,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>49.7983857788696</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H12" t="n">
         <v>125.6745619188949</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4735447740309</v>
+        <v>92.5336382890132</v>
       </c>
       <c r="T12" t="n">
-        <v>172.0653144788137</v>
+        <v>119.4821794342016</v>
       </c>
       <c r="U12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V12" t="n">
-        <v>141.7090144303846</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="13">
@@ -28245,37 +28245,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G13" t="n">
         <v>168.6954829817093</v>
       </c>
       <c r="H13" t="n">
-        <v>200.3558571852819</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I13" t="n">
         <v>164.6938248359117</v>
       </c>
       <c r="J13" t="n">
-        <v>119.8654670400798</v>
+        <v>177.3786876158937</v>
       </c>
       <c r="K13" t="n">
         <v>66.41515229588839</v>
       </c>
       <c r="L13" t="n">
-        <v>130.3049547715882</v>
+        <v>31.36504828657057</v>
       </c>
       <c r="M13" t="n">
         <v>24.38732889638567</v>
@@ -28284,37 +28284,37 @@
         <v>15.71034539069795</v>
       </c>
       <c r="O13" t="n">
-        <v>133.3886233173437</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P13" t="n">
-        <v>156.7784686382177</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.7738576957197</v>
+        <v>200.355857185282</v>
       </c>
       <c r="R13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="14">
@@ -28324,43 +28324,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="D14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="H14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="J14" t="n">
         <v>75.78032220706916</v>
       </c>
       <c r="K14" t="n">
-        <v>104.1664143511966</v>
+        <v>44.28067033968912</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>15.18968547299718</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>20.74607087117997</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -28369,31 +28369,31 @@
         <v>13.39547932052248</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.77153309713249</v>
+        <v>187.3776479086702</v>
       </c>
       <c r="R14" t="n">
-        <v>194.140471641135</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="15">
@@ -28409,7 +28409,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>60.23240859156087</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551212</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4735447740309</v>
+        <v>104.5361593126648</v>
       </c>
       <c r="T15" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U15" t="n">
-        <v>138.2877477348486</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V15" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W15" t="n">
-        <v>181.5502888846356</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X15" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="16">
@@ -28485,37 +28485,37 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>200.355857185282</v>
       </c>
       <c r="D16" t="n">
-        <v>200.3558571852819</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6954829817093</v>
+        <v>200.355857185282</v>
       </c>
       <c r="H16" t="n">
         <v>165.7773474488177</v>
       </c>
       <c r="I16" t="n">
-        <v>164.6938248359117</v>
+        <v>200.355857185282</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8654670400798</v>
+        <v>200.355857185282</v>
       </c>
       <c r="K16" t="n">
-        <v>165.3550587809061</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L16" t="n">
         <v>31.36504828657057</v>
       </c>
       <c r="M16" t="n">
-        <v>41.77064747887738</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N16" t="n">
         <v>15.71034539069795</v>
@@ -28524,34 +28524,34 @@
         <v>36.73089156368813</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7784686382177</v>
+        <v>72.98142823928008</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.7738576957197</v>
+        <v>200.355857185282</v>
       </c>
       <c r="R16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>329.8468768652333</v>
       </c>
       <c r="I17" t="n">
-        <v>240.5549466909089</v>
+        <v>296.100028766152</v>
       </c>
       <c r="J17" t="n">
         <v>75.78032220706916</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>58.66502733817968</v>
+        <v>13.39547932052248</v>
       </c>
       <c r="Q17" t="n">
         <v>88.43774142365251</v>
       </c>
       <c r="R17" t="n">
-        <v>293.0803781261527</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S17" t="n">
         <v>227.2481593784061</v>
@@ -28618,10 +28618,10 @@
         <v>222.4142379110366</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1495976938827</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="W17" t="n">
         <v>329.8468768652333</v>
@@ -28643,13 +28643,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>88.57824503934825</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>72.887665354782</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28661,7 +28661,7 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I18" t="n">
-        <v>107.1460820356304</v>
+        <v>26.06352011391282</v>
       </c>
       <c r="J18" t="n">
         <v>51.87880489469028</v>
@@ -28697,19 +28697,19 @@
         <v>214.9454809665884</v>
       </c>
       <c r="U18" t="n">
-        <v>156.1450922981486</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V18" t="n">
-        <v>141.7090144303846</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>167.7646770919939</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>118.3730079544529</v>
       </c>
       <c r="Y18" t="n">
-        <v>124.4443796490079</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28846,19 +28846,19 @@
         <v>88.43774142365251</v>
       </c>
       <c r="R20" t="n">
-        <v>194.140471641135</v>
+        <v>258.6526469724593</v>
       </c>
       <c r="S20" t="n">
-        <v>326.1880658634237</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T20" t="n">
-        <v>258.7166926726125</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1495976938827</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="V20" t="n">
-        <v>329.8468768652333</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>329.8468768652333</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>88.57824503934825</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28898,10 +28898,10 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I21" t="n">
-        <v>26.06352011391282</v>
+        <v>8.206175550612741</v>
       </c>
       <c r="J21" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,19 +28925,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.38798353551211</v>
+        <v>35.38798353551212</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4735447740309</v>
+        <v>92.5336382890132</v>
       </c>
       <c r="T21" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U21" t="n">
-        <v>138.2877477348486</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>211.4451638883749</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -29056,7 +29056,7 @@
         <v>329.8468768652333</v>
       </c>
       <c r="I23" t="n">
-        <v>329.8468768652333</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J23" t="n">
         <v>75.78032220706916</v>
@@ -29080,10 +29080,10 @@
         <v>13.39547932052248</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.3552657520032</v>
+        <v>187.3776479086702</v>
       </c>
       <c r="R23" t="n">
-        <v>194.140471641135</v>
+        <v>230.4429264027109</v>
       </c>
       <c r="S23" t="n">
         <v>227.2481593784061</v>
@@ -29095,7 +29095,7 @@
         <v>250.1495976938827</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="W23" t="n">
         <v>329.8468768652333</v>
@@ -29117,13 +29117,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>88.57824503934818</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>60.23240859156087</v>
       </c>
       <c r="E24" t="n">
-        <v>90.745009918082</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29132,7 +29132,7 @@
         <v>148.7382922638873</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6745619188949</v>
+        <v>44.5919999971773</v>
       </c>
       <c r="I24" t="n">
         <v>107.1460820356304</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551211</v>
       </c>
       <c r="S24" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9454809665884</v>
+        <v>116.0055744815707</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V24" t="n">
-        <v>141.7090144303845</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>118.3730079544529</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8607143456128</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="27">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29375,7 +29375,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29405,22 +29405,22 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>178.7785454012304</v>
+        <v>3.837645377909098</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="28">
@@ -29448,7 +29448,7 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7773474488177</v>
+        <v>205.5379936906019</v>
       </c>
       <c r="I28" t="n">
         <v>164.6938248359117</v>
@@ -29466,10 +29466,10 @@
         <v>24.38732889638567</v>
       </c>
       <c r="N28" t="n">
-        <v>76.49153780547272</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8607143456134</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P28" t="n">
         <v>57.83856215320002</v>
@@ -29481,25 +29481,25 @@
         <v>203.1920160450731</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="29">
@@ -29603,10 +29603,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6745619188949</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>107.1460820356304</v>
@@ -29642,22 +29642,22 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8607143456135</v>
+        <v>129.5122072968039</v>
       </c>
       <c r="V30" t="n">
-        <v>152.5759376417964</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>212.8607143456135</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="31">
@@ -29697,16 +29697,16 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L31" t="n">
-        <v>71.1256945283549</v>
+        <v>31.36504828657057</v>
       </c>
       <c r="M31" t="n">
         <v>24.38732889638567</v>
       </c>
       <c r="N31" t="n">
+        <v>76.49153780547202</v>
+      </c>
+      <c r="O31" t="n">
         <v>212.8607143456135</v>
-      </c>
-      <c r="O31" t="n">
-        <v>36.73089156368813</v>
       </c>
       <c r="P31" t="n">
         <v>57.83856215320002</v>
@@ -29785,7 +29785,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456124</v>
       </c>
       <c r="P32" t="n">
         <v>212.8607143456135</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29834,13 +29834,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7382922638873</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S33" t="n">
         <v>191.4735447740309</v>
@@ -29882,7 +29882,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8607143456135</v>
+        <v>24.35664270926389</v>
       </c>
       <c r="V33" t="n">
         <v>212.8607143456135</v>
@@ -29891,7 +29891,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="X33" t="n">
-        <v>14.86916302377247</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y33" t="n">
         <v>212.8607143456135</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.4224167724581</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29922,7 +29922,7 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7773474488177</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I34" t="n">
         <v>164.6938248359117</v>
@@ -29937,16 +29937,16 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M34" t="n">
-        <v>212.8607143456135</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N34" t="n">
         <v>15.71034539069795</v>
       </c>
       <c r="O34" t="n">
-        <v>49.92472763051433</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P34" t="n">
-        <v>57.83856215320002</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7738576957197</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="E35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="H35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="I35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="J35" t="n">
-        <v>240.5549466909089</v>
+        <v>75.78032220706916</v>
       </c>
       <c r="K35" t="n">
-        <v>240.5549466909089</v>
+        <v>5.226507866178949</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>208.7553155294746</v>
       </c>
       <c r="N35" t="n">
-        <v>113.76238274146</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="P35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="R35" t="n">
-        <v>194.140471641135</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4142379110366</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="36">
@@ -30071,10 +30071,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>108.8372362577787</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7382922638873</v>
@@ -30086,7 +30086,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30119,19 +30119,19 @@
         <v>214.9454809665884</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276542198663</v>
+        <v>186.9193607572523</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W36" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30168,7 +30168,7 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K37" t="n">
-        <v>66.41515229588839</v>
+        <v>170.9056639967907</v>
       </c>
       <c r="L37" t="n">
         <v>31.36504828657057</v>
@@ -30177,7 +30177,7 @@
         <v>24.38732889638567</v>
       </c>
       <c r="N37" t="n">
-        <v>120.2008570916003</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O37" t="n">
         <v>36.73089156368813</v>
@@ -30198,13 +30198,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U37" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V37" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W37" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30247,34 +30247,34 @@
         <v>240.554946690909</v>
       </c>
       <c r="K38" t="n">
-        <v>240.554946690909</v>
+        <v>232.7719002714456</v>
       </c>
       <c r="L38" t="n">
-        <v>82.22619464106512</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="P38" t="n">
-        <v>13.39547932052248</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Q38" t="n">
+        <v>88.43774142365251</v>
+      </c>
+      <c r="R38" t="n">
         <v>240.554946690909</v>
       </c>
-      <c r="R38" t="n">
-        <v>194.140471641135</v>
-      </c>
       <c r="S38" t="n">
-        <v>240.554946690909</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T38" t="n">
-        <v>240.554946690909</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U38" t="n">
         <v>240.554946690909</v>
@@ -30299,25 +30299,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>96.88771054951673</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>41.44894939832436</v>
       </c>
       <c r="I39" t="n">
         <v>107.1460820356304</v>
@@ -30347,7 +30347,7 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.4735447740309</v>
@@ -30368,7 +30368,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30390,10 +30390,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G40" t="n">
-        <v>168.6954829817093</v>
+        <v>171.5579302101492</v>
       </c>
       <c r="H40" t="n">
         <v>165.7773474488177</v>
@@ -30414,7 +30414,7 @@
         <v>24.38732889638567</v>
       </c>
       <c r="N40" t="n">
-        <v>120.2008570916002</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O40" t="n">
         <v>36.73089156368813</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="C41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="D41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="E41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="F41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="G41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="H41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="I41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J41" t="n">
-        <v>75.78032220706916</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="K41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="L41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>213.9818233956532</v>
+        <v>80.65469500418956</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="R41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="S41" t="n">
-        <v>240.554946690909</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T41" t="n">
-        <v>240.554946690909</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
     </row>
     <row r="42">
@@ -30536,22 +30536,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>36.04198425551473</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7382922638873</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>125.6745619188949</v>
@@ -30587,25 +30587,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V42" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>173.503372833989</v>
       </c>
     </row>
     <row r="43">
@@ -30621,7 +30621,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30651,7 +30651,7 @@
         <v>24.38732889638567</v>
       </c>
       <c r="N43" t="n">
-        <v>120.2008570916002</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O43" t="n">
         <v>36.73089156368813</v>
@@ -30660,7 +30660,7 @@
         <v>57.83856215320002</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7738576957197</v>
+        <v>135.8920729564239</v>
       </c>
       <c r="R43" t="n">
         <v>203.1920160450731</v>
@@ -30672,13 +30672,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U43" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V43" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W43" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30718,10 +30718,10 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J44" t="n">
-        <v>75.78032220706919</v>
+        <v>75.78032220706913</v>
       </c>
       <c r="K44" t="n">
-        <v>5.226507866178977</v>
+        <v>5.226507866178885</v>
       </c>
       <c r="L44" t="n">
         <v>240.5549466909089</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>208.7553155294752</v>
+        <v>240.20281162185</v>
       </c>
       <c r="O44" t="n">
         <v>240.5549466909089</v>
@@ -30745,10 +30745,10 @@
         <v>240.5549466909089</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5549466909089</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5549466909089</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U44" t="n">
         <v>240.5549466909089</v>
@@ -30776,10 +30776,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>79.06925869885994</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30788,16 +30788,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7382922638873</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.6745619188949</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.87880489469029</v>
+        <v>51.87880489469025</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.063707710285875</v>
+        <v>6.063707710285826</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4735447740309</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T45" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5549466909089</v>
+        <v>136.4344245038031</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30879,25 +30879,25 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K46" t="n">
-        <v>66.41515229588839</v>
+        <v>66.41515229588836</v>
       </c>
       <c r="L46" t="n">
-        <v>31.36504828657058</v>
+        <v>31.36504828657053</v>
       </c>
       <c r="M46" t="n">
-        <v>128.877840597288</v>
+        <v>24.38732889638563</v>
       </c>
       <c r="N46" t="n">
-        <v>15.71034539069797</v>
+        <v>120.2008570916004</v>
       </c>
       <c r="O46" t="n">
-        <v>36.73089156368814</v>
+        <v>36.73089156368809</v>
       </c>
       <c r="P46" t="n">
-        <v>57.83856215320003</v>
+        <v>57.83856215319999</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7738576957197</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R46" t="n">
         <v>203.1920160450731</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4185166165508682</v>
+        <v>0.418516616550869</v>
       </c>
       <c r="H44" t="n">
-        <v>4.28613329925158</v>
+        <v>4.286133299251588</v>
       </c>
       <c r="I44" t="n">
-        <v>16.13486185957736</v>
+        <v>16.13486185957739</v>
       </c>
       <c r="J44" t="n">
-        <v>35.52107468398428</v>
+        <v>35.52107468398435</v>
       </c>
       <c r="K44" t="n">
-        <v>53.23688306258255</v>
+        <v>53.23688306258264</v>
       </c>
       <c r="L44" t="n">
-        <v>66.0450609663512</v>
+        <v>66.04506096635131</v>
       </c>
       <c r="M44" t="n">
-        <v>73.48785584593769</v>
+        <v>73.48785584593783</v>
       </c>
       <c r="N44" t="n">
-        <v>74.67696618271286</v>
+        <v>74.67696618271299</v>
       </c>
       <c r="O44" t="n">
-        <v>70.51534157688515</v>
+        <v>70.51534157688528</v>
       </c>
       <c r="P44" t="n">
-        <v>60.18321260578558</v>
+        <v>60.18321260578569</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.1950862755576</v>
+        <v>45.19508627555768</v>
       </c>
       <c r="R44" t="n">
-        <v>26.2896444144135</v>
+        <v>26.28964441441355</v>
       </c>
       <c r="S44" t="n">
-        <v>9.53694739965292</v>
+        <v>9.536947399652936</v>
       </c>
       <c r="T44" t="n">
-        <v>1.832056488951427</v>
+        <v>1.83205648895143</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03348132932406945</v>
+        <v>0.03348132932406951</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.223926131204552</v>
+        <v>0.2239261312045524</v>
       </c>
       <c r="H45" t="n">
-        <v>2.162655004001858</v>
+        <v>2.162655004001862</v>
       </c>
       <c r="I45" t="n">
-        <v>7.709737412086549</v>
+        <v>7.709737412086564</v>
       </c>
       <c r="J45" t="n">
-        <v>21.15610873805814</v>
+        <v>21.15610873805817</v>
       </c>
       <c r="K45" t="n">
-        <v>36.15915952876312</v>
+        <v>36.15915952876318</v>
       </c>
       <c r="L45" t="n">
-        <v>48.62045230386556</v>
+        <v>48.62045230386564</v>
       </c>
       <c r="M45" t="n">
-        <v>56.73777456003055</v>
+        <v>56.73777456003065</v>
       </c>
       <c r="N45" t="n">
-        <v>58.23945462411723</v>
+        <v>58.23945462411734</v>
       </c>
       <c r="O45" t="n">
-        <v>53.27772298005847</v>
+        <v>53.27772298005856</v>
       </c>
       <c r="P45" t="n">
-        <v>42.76006973852537</v>
+        <v>42.76006973852545</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.58397422183018</v>
+        <v>28.58397422183023</v>
       </c>
       <c r="R45" t="n">
-        <v>13.90306277777035</v>
+        <v>13.90306277777037</v>
       </c>
       <c r="S45" t="n">
-        <v>4.159329673909109</v>
+        <v>4.159329673909117</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9025794498990491</v>
+        <v>0.9025794498990507</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01473198231608895</v>
+        <v>0.01473198231608898</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1877321462356252</v>
+        <v>0.1877321462356256</v>
       </c>
       <c r="H46" t="n">
-        <v>1.669109445622196</v>
+        <v>1.6691094456222</v>
       </c>
       <c r="I46" t="n">
-        <v>5.645617634067714</v>
+        <v>5.645617634067723</v>
       </c>
       <c r="J46" t="n">
-        <v>13.2726627388587</v>
+        <v>13.27266273885873</v>
       </c>
       <c r="K46" t="n">
-        <v>21.81106208082991</v>
+        <v>21.81106208082995</v>
       </c>
       <c r="L46" t="n">
-        <v>27.91065017761287</v>
+        <v>27.91065017761292</v>
       </c>
       <c r="M46" t="n">
-        <v>29.42786725037169</v>
+        <v>29.42786725037174</v>
       </c>
       <c r="N46" t="n">
-        <v>28.72813834167529</v>
+        <v>28.72813834167534</v>
       </c>
       <c r="O46" t="n">
-        <v>26.5350855424682</v>
+        <v>26.53508554246825</v>
       </c>
       <c r="P46" t="n">
-        <v>22.70534975926143</v>
+        <v>22.70534975926147</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.72000726342131</v>
+        <v>15.72000726342134</v>
       </c>
       <c r="R46" t="n">
-        <v>8.441119957103655</v>
+        <v>8.441119957103671</v>
       </c>
       <c r="S46" t="n">
-        <v>3.271659312124486</v>
+        <v>3.271659312124492</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8021282611885804</v>
+        <v>0.8021282611885817</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01023993524921593</v>
+        <v>0.01023993524921595</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.05416247351028</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.93990648501767</v>
+        <v>45.26954801765717</v>
       </c>
       <c r="R11" t="n">
-        <v>6.215385544146837</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>39.36607756419615</v>
       </c>
       <c r="L12" t="n">
-        <v>68.84099665492479</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N12" t="n">
         <v>98.93990648501767</v>
       </c>
       <c r="O12" t="n">
-        <v>98.93990648501767</v>
+        <v>55.57625694162891</v>
       </c>
       <c r="P12" t="n">
-        <v>85.67516677172179</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,37 +35541,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>22.73893652031393</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.17320693457131</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.67971597305703</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.42897496683537</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.5785097364642</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.51322057581385</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.65773175365557</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.58199948956236</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>98.93990648501767</v>
+        <v>39.05416247351017</v>
       </c>
       <c r="L14" t="n">
         <v>49.05450173165866</v>
       </c>
       <c r="M14" t="n">
-        <v>98.93990648501767</v>
+        <v>83.75022101202049</v>
       </c>
       <c r="N14" t="n">
-        <v>98.93990648501767</v>
+        <v>78.19383561383771</v>
       </c>
       <c r="O14" t="n">
         <v>36.55404110068636</v>
@@ -35665,10 +35665,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.333791673479983</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>6.215385544146951</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>39.36607756419615</v>
       </c>
       <c r="L15" t="n">
-        <v>98.93990648501767</v>
+        <v>55.57625694162892</v>
       </c>
       <c r="M15" t="n">
         <v>98.93990648501767</v>
@@ -35738,7 +35738,7 @@
         <v>98.93990648501767</v>
       </c>
       <c r="O15" t="n">
-        <v>55.57625694162891</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35781,37 +35781,37 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.89867621330964</v>
       </c>
       <c r="D16" t="n">
-        <v>55.17320693457117</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.67971597305689</v>
+        <v>58.679715973057</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>31.66037420357265</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.66203234937029</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>80.49039014520218</v>
       </c>
       <c r="K16" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>17.38331858249171</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35820,10 +35820,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>98.93990648501767</v>
+        <v>15.14286608608006</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.58199948956234</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>55.54508207524302</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>36.55404110068636</v>
       </c>
       <c r="P17" t="n">
-        <v>45.2695480176572</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,10 +35914,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>79.69727917135057</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>8.967093256081284</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L18" t="n">
         <v>98.93990648501767</v>
       </c>
       <c r="M18" t="n">
-        <v>9.267167734103269</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N18" t="n">
         <v>98.93990648501767</v>
       </c>
       <c r="O18" t="n">
-        <v>98.93990648501767</v>
+        <v>55.57625694162891</v>
       </c>
       <c r="P18" t="n">
-        <v>85.67516677172179</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>64.51217533132427</v>
       </c>
       <c r="S20" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>36.30245476157588</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>79.69727917135057</v>
       </c>
       <c r="V20" t="n">
-        <v>8.967093256081284</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>98.93990648501767</v>
+        <v>9.267167734103275</v>
       </c>
       <c r="M21" t="n">
         <v>98.93990648501767</v>
@@ -36212,7 +36212,7 @@
         <v>98.93990648501767</v>
       </c>
       <c r="O21" t="n">
-        <v>9.267167734103255</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="P21" t="n">
         <v>85.67516677172179</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>89.29193017432436</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36376,10 +36376,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.91752432835073</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>36.30245476157588</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36391,7 +36391,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>8.967093256081284</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L24" t="n">
-        <v>94.94233450582507</v>
+        <v>68.84099665492479</v>
       </c>
       <c r="M24" t="n">
-        <v>98.93990648501774</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>98.93990648501774</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="O24" t="n">
-        <v>98.93990648501774</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>137.0803921385443</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794346</v>
       </c>
       <c r="L26" t="n">
         <v>261.9152160772721</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6109353576339</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N26" t="n">
-        <v>291.0545499594505</v>
+        <v>291.0545499594512</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4147554462998</v>
+        <v>249.4147554462999</v>
       </c>
       <c r="P26" t="n">
         <v>199.465235025091</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4229729219609</v>
+        <v>124.422972921961</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72024270447841</v>
+        <v>18.72024270447846</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>39.76064624178416</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>60.78119241477476</v>
+        <v>197.1503689549155</v>
       </c>
       <c r="O28" t="n">
-        <v>176.1298227819253</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0803921385443</v>
+        <v>137.0803921385444</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794346</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9152160772721</v>
+        <v>261.9152160772722</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6109353576339</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0545499594512</v>
+        <v>291.0545499594513</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4147554462998</v>
+        <v>249.4147554462999</v>
       </c>
       <c r="P29" t="n">
-        <v>199.465235025091</v>
+        <v>199.4652350250911</v>
       </c>
       <c r="Q29" t="n">
         <v>124.422972921961</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72024270447844</v>
+        <v>18.72024270447849</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>39.76064624178434</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>197.1503689549155</v>
+        <v>60.78119241477407</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.1298227819254</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>291.0545499594513</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4147554462999</v>
+        <v>249.4147554462987</v>
       </c>
       <c r="P32" t="n">
         <v>199.4652350250911</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.24379368064544</v>
+        <v>34.80549610749006</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.08336689679585</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>188.4733854492278</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>13.1938360668262</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.0221521924135</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>164.7746244838398</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>235.32843882473</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>49.05450173165866</v>
+        <v>289.6094484225677</v>
       </c>
       <c r="M35" t="n">
-        <v>83.75022101202049</v>
+        <v>292.5055365414951</v>
       </c>
       <c r="N35" t="n">
-        <v>191.9562183552978</v>
+        <v>78.19383561383771</v>
       </c>
       <c r="O35" t="n">
         <v>277.1089877915953</v>
@@ -37324,16 +37324,16 @@
         <v>227.1594673703865</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.1172052672564</v>
+        <v>152.1172052672565</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>46.41447504977393</v>
       </c>
       <c r="S35" t="n">
-        <v>13.30678731250286</v>
+        <v>13.30678731250288</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>18.14070877987234</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>104.4905117009023</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>104.4905117009024</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37543,34 +37543,34 @@
         <v>164.7746244838398</v>
       </c>
       <c r="K38" t="n">
-        <v>235.32843882473</v>
+        <v>227.5453924052666</v>
       </c>
       <c r="L38" t="n">
-        <v>131.2806963727238</v>
+        <v>49.05450173165866</v>
       </c>
       <c r="M38" t="n">
-        <v>324.3051677029295</v>
+        <v>83.75022101202049</v>
       </c>
       <c r="N38" t="n">
         <v>318.7487823047467</v>
       </c>
       <c r="O38" t="n">
-        <v>36.55404110068636</v>
+        <v>277.1089877915954</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>227.1594673703865</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.1172052672565</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>46.41447504977396</v>
       </c>
       <c r="S38" t="n">
-        <v>13.30678731250288</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>18.14070877987234</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37686,10 +37686,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>101.6280644724623</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.862447228439855</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>104.4905117009023</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.7746244838397</v>
       </c>
       <c r="K41" t="n">
         <v>235.32843882473</v>
       </c>
       <c r="L41" t="n">
-        <v>289.6094484225677</v>
+        <v>289.6094484225675</v>
       </c>
       <c r="M41" t="n">
-        <v>83.75022101202049</v>
+        <v>324.3051677029294</v>
       </c>
       <c r="N41" t="n">
         <v>78.19383561383771</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1089877915953</v>
+        <v>36.55404110068636</v>
       </c>
       <c r="P41" t="n">
-        <v>200.5863440751308</v>
+        <v>67.25921568366708</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.1172052672565</v>
+        <v>152.1172052672564</v>
       </c>
       <c r="R41" t="n">
-        <v>46.41447504977393</v>
+        <v>46.41447504977387</v>
       </c>
       <c r="S41" t="n">
-        <v>13.30678731250288</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.14070877987234</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>95.3722964401982</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>104.4905117009023</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>9.118215260704257</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,31 +38020,31 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>289.6094484225675</v>
+        <v>289.6094484225677</v>
       </c>
       <c r="M44" t="n">
-        <v>83.75022101202045</v>
+        <v>83.75022101202059</v>
       </c>
       <c r="N44" t="n">
-        <v>286.9491511433129</v>
+        <v>318.3966472356878</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1089877915953</v>
+        <v>277.1089877915954</v>
       </c>
       <c r="P44" t="n">
-        <v>227.1594673703864</v>
+        <v>227.1594673703865</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.1172052672564</v>
+        <v>152.1172052672565</v>
       </c>
       <c r="R44" t="n">
-        <v>46.41447504977388</v>
+        <v>46.4144750497739</v>
       </c>
       <c r="S44" t="n">
-        <v>13.30678731250285</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.14070877987232</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.36607756419613</v>
+        <v>39.36607756419619</v>
       </c>
       <c r="L45" t="n">
-        <v>119.8886527290606</v>
+        <v>119.8886527290607</v>
       </c>
       <c r="M45" t="n">
-        <v>185.1111344851682</v>
+        <v>185.1111344851683</v>
       </c>
       <c r="N45" t="n">
-        <v>208.6164244570732</v>
+        <v>208.6164244570734</v>
       </c>
       <c r="O45" t="n">
-        <v>134.533087649157</v>
+        <v>134.5330876491571</v>
       </c>
       <c r="P45" t="n">
-        <v>85.67516677172176</v>
+        <v>85.67516677172185</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>104.4905117009024</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>104.4905117009025</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
